--- a/data/_dictionary_14.xlsx
+++ b/data/_dictionary_14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tn/Desktop/REASON/acfrs_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27EE4236-4909-2B4A-B7C2-85EC0367C4C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87FA74E-F926-854D-9521-31DDCC1F9BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="560" windowWidth="29340" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="25020" windowHeight="17700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2298" uniqueCount="1629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="1602">
   <si>
     <t>state.abb</t>
   </si>
@@ -1156,9 +1156,6 @@
     <t>3500540</t>
   </si>
   <si>
-    <t>zuni public school district</t>
-  </si>
-  <si>
     <t>zuni</t>
   </si>
   <si>
@@ -1912,12 +1909,6 @@
     <t>3415330</t>
   </si>
   <si>
-    <t>dunkin r-v school district</t>
-  </si>
-  <si>
-    <t>dunkin rv</t>
-  </si>
-  <si>
     <t>faulkton area schools district no. 24-4</t>
   </si>
   <si>
@@ -2614,24 +2605,6 @@
     <t>3680480</t>
   </si>
   <si>
-    <t>harrison town school district</t>
-  </si>
-  <si>
-    <t>harrison town</t>
-  </si>
-  <si>
-    <t>pleasant grove joint union elementary school district</t>
-  </si>
-  <si>
-    <t>pleasant grove joint union elementaryentary</t>
-  </si>
-  <si>
-    <t>rhodes school district no. 84.5</t>
-  </si>
-  <si>
-    <t>rhodes   845</t>
-  </si>
-  <si>
     <t>rhodes sd 845</t>
   </si>
   <si>
@@ -3064,12 +3037,6 @@
     <t>4104410</t>
   </si>
   <si>
-    <t>cook county school district no. 104</t>
-  </si>
-  <si>
-    <t>cook county   104</t>
-  </si>
-  <si>
     <t>cole county r-i school district</t>
   </si>
   <si>
@@ -3670,12 +3637,6 @@
     <t>2636240</t>
   </si>
   <si>
-    <t>south central community school district no. 401</t>
-  </si>
-  <si>
-    <t>south central community   401</t>
-  </si>
-  <si>
     <t>south central cud 401</t>
   </si>
   <si>
@@ -3877,12 +3838,6 @@
     <t>1600030</t>
   </si>
   <si>
-    <t>canadian school district no. i-2</t>
-  </si>
-  <si>
-    <t>canadian   i2</t>
-  </si>
-  <si>
     <t>canadian</t>
   </si>
   <si>
@@ -4510,12 +4465,6 @@
     <t>3173230</t>
   </si>
   <si>
-    <t>crescent school district no. i-002</t>
-  </si>
-  <si>
-    <t>crescent   i002</t>
-  </si>
-  <si>
     <t>target range public school</t>
   </si>
   <si>
@@ -4567,12 +4516,6 @@
     <t>3017190</t>
   </si>
   <si>
-    <t>oologah-talala independent school district no. 4</t>
-  </si>
-  <si>
-    <t>oologahtalala independent   4</t>
-  </si>
-  <si>
     <t>sidney school districts no. 1 &amp; 5</t>
   </si>
   <si>
@@ -4612,12 +4555,6 @@
     <t>3012510</t>
   </si>
   <si>
-    <t>perkins-tryon independent school district no. 56</t>
-  </si>
-  <si>
-    <t>perkinstryon independent   56</t>
-  </si>
-  <si>
     <t>kellyville independent school district no. 31</t>
   </si>
   <si>
@@ -4630,12 +4567,6 @@
     <t>4016170</t>
   </si>
   <si>
-    <t>little axe independent school district no. 70</t>
-  </si>
-  <si>
-    <t>little axe independent   70</t>
-  </si>
-  <si>
     <t>malta public school district no. 14a</t>
   </si>
   <si>
@@ -4678,12 +4609,6 @@
     <t>canadian independent   2</t>
   </si>
   <si>
-    <t>kingston independent school district no. 3</t>
-  </si>
-  <si>
-    <t>kingston independent   3</t>
-  </si>
-  <si>
     <t>frederick independent school district no. 158</t>
   </si>
   <si>
@@ -4694,12 +4619,6 @@
   </si>
   <si>
     <t>4012150</t>
-  </si>
-  <si>
-    <t>valliant independent school district no. 11</t>
-  </si>
-  <si>
-    <t>valliant independent   11</t>
   </si>
   <si>
     <t>bokoshe independent school district no. 26</t>
@@ -4913,7 +4832,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4946,6 +4865,12 @@
       <sz val="13.5"/>
       <color rgb="FF212529"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -4981,7 +4906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4993,6 +4918,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5299,9 +5225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F470"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A446" sqref="A446:XFD446"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A276" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5326,7 +5252,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1628</v>
+        <v>1601</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -7752,41 +7678,21 @@
         <v>225262</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>371</v>
-      </c>
-      <c r="B123" t="s">
-        <v>378</v>
-      </c>
-      <c r="C123" t="s">
-        <v>379</v>
-      </c>
-      <c r="D123" t="s">
-        <v>379</v>
-      </c>
-      <c r="E123" t="s">
-        <v>380</v>
-      </c>
-      <c r="F123">
-        <v>1238956</v>
-      </c>
-    </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>371</v>
       </c>
       <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
         <v>381</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>381</v>
+      </c>
+      <c r="E124" t="s">
         <v>382</v>
-      </c>
-      <c r="D124" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" t="s">
-        <v>383</v>
       </c>
       <c r="F124">
         <v>35956</v>
@@ -7797,16 +7703,16 @@
         <v>371</v>
       </c>
       <c r="B125" t="s">
+        <v>383</v>
+      </c>
+      <c r="C125" t="s">
         <v>384</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
+        <v>384</v>
+      </c>
+      <c r="E125" t="s">
         <v>385</v>
-      </c>
-      <c r="D125" t="s">
-        <v>385</v>
-      </c>
-      <c r="E125" t="s">
-        <v>386</v>
       </c>
       <c r="F125">
         <v>82145</v>
@@ -7817,16 +7723,16 @@
         <v>371</v>
       </c>
       <c r="B126" t="s">
+        <v>386</v>
+      </c>
+      <c r="C126" t="s">
         <v>387</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>387</v>
+      </c>
+      <c r="E126" t="s">
         <v>388</v>
-      </c>
-      <c r="D126" t="s">
-        <v>388</v>
-      </c>
-      <c r="E126" t="s">
-        <v>389</v>
       </c>
       <c r="F126">
         <v>82146</v>
@@ -7837,16 +7743,16 @@
         <v>371</v>
       </c>
       <c r="B127" t="s">
+        <v>389</v>
+      </c>
+      <c r="C127" t="s">
         <v>390</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>390</v>
+      </c>
+      <c r="E127" t="s">
         <v>391</v>
-      </c>
-      <c r="D127" t="s">
-        <v>391</v>
-      </c>
-      <c r="E127" t="s">
-        <v>392</v>
       </c>
       <c r="F127">
         <v>1240643</v>
@@ -7857,16 +7763,16 @@
         <v>371</v>
       </c>
       <c r="B128" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" t="s">
         <v>393</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>393</v>
+      </c>
+      <c r="E128" t="s">
         <v>394</v>
-      </c>
-      <c r="D128" t="s">
-        <v>394</v>
-      </c>
-      <c r="E128" t="s">
-        <v>395</v>
       </c>
       <c r="F128">
         <v>1240642</v>
@@ -7877,16 +7783,16 @@
         <v>371</v>
       </c>
       <c r="B129" t="s">
+        <v>395</v>
+      </c>
+      <c r="C129" t="s">
         <v>396</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>396</v>
+      </c>
+      <c r="E129" t="s">
         <v>397</v>
-      </c>
-      <c r="D129" t="s">
-        <v>397</v>
-      </c>
-      <c r="E129" t="s">
-        <v>398</v>
       </c>
       <c r="F129">
         <v>1268316</v>
@@ -7897,16 +7803,16 @@
         <v>371</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C130" t="s">
+        <v>378</v>
+      </c>
+      <c r="D130" t="s">
+        <v>378</v>
+      </c>
+      <c r="E130" t="s">
         <v>379</v>
-      </c>
-      <c r="D130" t="s">
-        <v>379</v>
-      </c>
-      <c r="E130" t="s">
-        <v>380</v>
       </c>
       <c r="F130">
         <v>47980</v>
@@ -7914,19 +7820,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>399</v>
+      </c>
+      <c r="B131" t="s">
         <v>400</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>401</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
+        <v>401</v>
+      </c>
+      <c r="E131" t="s">
         <v>402</v>
-      </c>
-      <c r="D131" t="s">
-        <v>402</v>
-      </c>
-      <c r="E131" t="s">
-        <v>403</v>
       </c>
       <c r="F131">
         <v>225447</v>
@@ -7934,19 +7840,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B132" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" t="s">
         <v>404</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>404</v>
+      </c>
+      <c r="E132" t="s">
         <v>405</v>
-      </c>
-      <c r="D132" t="s">
-        <v>405</v>
-      </c>
-      <c r="E132" t="s">
-        <v>406</v>
       </c>
       <c r="F132">
         <v>1239014</v>
@@ -7954,19 +7860,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B133" t="s">
+        <v>406</v>
+      </c>
+      <c r="C133" t="s">
         <v>407</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
+        <v>407</v>
+      </c>
+      <c r="E133" t="s">
         <v>408</v>
-      </c>
-      <c r="D133" t="s">
-        <v>408</v>
-      </c>
-      <c r="E133" t="s">
-        <v>409</v>
       </c>
       <c r="F133">
         <v>36245</v>
@@ -7974,19 +7880,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B134" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" t="s">
         <v>410</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>410</v>
+      </c>
+      <c r="E134" t="s">
         <v>411</v>
-      </c>
-      <c r="D134" t="s">
-        <v>411</v>
-      </c>
-      <c r="E134" t="s">
-        <v>412</v>
       </c>
       <c r="F134">
         <v>65541</v>
@@ -7994,19 +7900,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B135" t="s">
+        <v>412</v>
+      </c>
+      <c r="C135" t="s">
         <v>413</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
+        <v>413</v>
+      </c>
+      <c r="E135" t="s">
         <v>414</v>
-      </c>
-      <c r="D135" t="s">
-        <v>414</v>
-      </c>
-      <c r="E135" t="s">
-        <v>415</v>
       </c>
       <c r="F135">
         <v>1268055</v>
@@ -8014,19 +7920,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B136" t="s">
+        <v>415</v>
+      </c>
+      <c r="C136" t="s">
         <v>416</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>416</v>
+      </c>
+      <c r="E136" t="s">
         <v>417</v>
-      </c>
-      <c r="D136" t="s">
-        <v>417</v>
-      </c>
-      <c r="E136" t="s">
-        <v>418</v>
       </c>
       <c r="F136">
         <v>36455</v>
@@ -8034,19 +7940,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B137" t="s">
+        <v>418</v>
+      </c>
+      <c r="C137" t="s">
         <v>419</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>419</v>
+      </c>
+      <c r="E137" t="s">
         <v>420</v>
-      </c>
-      <c r="D137" t="s">
-        <v>420</v>
-      </c>
-      <c r="E137" t="s">
-        <v>421</v>
       </c>
       <c r="F137">
         <v>45072</v>
@@ -8054,19 +7960,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B138" t="s">
+        <v>421</v>
+      </c>
+      <c r="C138" t="s">
         <v>422</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>422</v>
+      </c>
+      <c r="E138" t="s">
         <v>423</v>
-      </c>
-      <c r="D138" t="s">
-        <v>423</v>
-      </c>
-      <c r="E138" t="s">
-        <v>424</v>
       </c>
       <c r="F138">
         <v>1268628</v>
@@ -8074,19 +7980,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B139" t="s">
+        <v>424</v>
+      </c>
+      <c r="C139" t="s">
         <v>425</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>425</v>
+      </c>
+      <c r="E139" t="s">
         <v>426</v>
-      </c>
-      <c r="D139" t="s">
-        <v>426</v>
-      </c>
-      <c r="E139" t="s">
-        <v>427</v>
       </c>
       <c r="F139">
         <v>1268783</v>
@@ -8094,19 +8000,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s">
+        <v>427</v>
+      </c>
+      <c r="C140" t="s">
         <v>428</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>428</v>
+      </c>
+      <c r="E140" t="s">
         <v>429</v>
-      </c>
-      <c r="D140" t="s">
-        <v>429</v>
-      </c>
-      <c r="E140" t="s">
-        <v>430</v>
       </c>
       <c r="F140">
         <v>82387</v>
@@ -8114,19 +8020,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B141" t="s">
+        <v>430</v>
+      </c>
+      <c r="C141" t="s">
         <v>431</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
+        <v>431</v>
+      </c>
+      <c r="E141" t="s">
         <v>432</v>
-      </c>
-      <c r="D141" t="s">
-        <v>432</v>
-      </c>
-      <c r="E141" t="s">
-        <v>433</v>
       </c>
       <c r="F141">
         <v>1269176</v>
@@ -8134,19 +8040,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>433</v>
+      </c>
+      <c r="B142" t="s">
         <v>434</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" t="s">
+        <v>434</v>
+      </c>
+      <c r="E142" t="s">
         <v>435</v>
-      </c>
-      <c r="C142" t="s">
-        <v>435</v>
-      </c>
-      <c r="D142" t="s">
-        <v>435</v>
-      </c>
-      <c r="E142" t="s">
-        <v>436</v>
       </c>
       <c r="F142">
         <v>65590</v>
@@ -8154,19 +8060,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B143" t="s">
+        <v>436</v>
+      </c>
+      <c r="C143" t="s">
         <v>437</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
+        <v>437</v>
+      </c>
+      <c r="E143" t="s">
         <v>438</v>
-      </c>
-      <c r="D143" t="s">
-        <v>438</v>
-      </c>
-      <c r="E143" t="s">
-        <v>439</v>
       </c>
       <c r="F143">
         <v>37060</v>
@@ -8174,19 +8080,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B144" t="s">
+        <v>439</v>
+      </c>
+      <c r="C144" t="s">
         <v>440</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
+        <v>440</v>
+      </c>
+      <c r="E144" t="s">
         <v>441</v>
-      </c>
-      <c r="D144" t="s">
-        <v>441</v>
-      </c>
-      <c r="E144" t="s">
-        <v>442</v>
       </c>
       <c r="F144">
         <v>83712</v>
@@ -8194,19 +8100,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B145" t="s">
+        <v>442</v>
+      </c>
+      <c r="C145" t="s">
+        <v>442</v>
+      </c>
+      <c r="D145" t="s">
+        <v>442</v>
+      </c>
+      <c r="E145" t="s">
         <v>443</v>
-      </c>
-      <c r="C145" t="s">
-        <v>443</v>
-      </c>
-      <c r="D145" t="s">
-        <v>443</v>
-      </c>
-      <c r="E145" t="s">
-        <v>444</v>
       </c>
       <c r="F145">
         <v>44110</v>
@@ -8214,19 +8120,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B146" t="s">
+        <v>444</v>
+      </c>
+      <c r="C146" t="s">
+        <v>444</v>
+      </c>
+      <c r="D146" t="s">
+        <v>444</v>
+      </c>
+      <c r="E146" t="s">
         <v>445</v>
-      </c>
-      <c r="C146" t="s">
-        <v>445</v>
-      </c>
-      <c r="D146" t="s">
-        <v>445</v>
-      </c>
-      <c r="E146" t="s">
-        <v>446</v>
       </c>
       <c r="F146">
         <v>83659</v>
@@ -8234,19 +8140,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B147" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" t="s">
         <v>447</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
+        <v>447</v>
+      </c>
+      <c r="E147" t="s">
         <v>448</v>
-      </c>
-      <c r="D147" t="s">
-        <v>448</v>
-      </c>
-      <c r="E147" t="s">
-        <v>449</v>
       </c>
       <c r="F147">
         <v>82664</v>
@@ -8254,19 +8160,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B148" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" t="s">
         <v>450</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
+        <v>450</v>
+      </c>
+      <c r="E148" t="s">
         <v>451</v>
-      </c>
-      <c r="D148" t="s">
-        <v>451</v>
-      </c>
-      <c r="E148" t="s">
-        <v>452</v>
       </c>
       <c r="F148">
         <v>82794</v>
@@ -8274,19 +8180,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B149" t="s">
+        <v>452</v>
+      </c>
+      <c r="C149" t="s">
         <v>453</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
+        <v>453</v>
+      </c>
+      <c r="E149" t="s">
         <v>454</v>
-      </c>
-      <c r="D149" t="s">
-        <v>454</v>
-      </c>
-      <c r="E149" t="s">
-        <v>455</v>
       </c>
       <c r="F149">
         <v>47545</v>
@@ -8294,19 +8200,19 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B150" t="s">
+        <v>455</v>
+      </c>
+      <c r="C150" t="s">
         <v>456</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
+        <v>456</v>
+      </c>
+      <c r="E150" t="s">
         <v>457</v>
-      </c>
-      <c r="D150" t="s">
-        <v>457</v>
-      </c>
-      <c r="E150" t="s">
-        <v>458</v>
       </c>
       <c r="F150">
         <v>1240433</v>
@@ -8314,19 +8220,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B151" t="s">
+        <v>458</v>
+      </c>
+      <c r="C151" t="s">
         <v>459</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
+        <v>459</v>
+      </c>
+      <c r="E151" t="s">
         <v>460</v>
-      </c>
-      <c r="D151" t="s">
-        <v>460</v>
-      </c>
-      <c r="E151" t="s">
-        <v>461</v>
       </c>
       <c r="F151">
         <v>36999</v>
@@ -8334,19 +8240,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B152" t="s">
+        <v>461</v>
+      </c>
+      <c r="C152" t="s">
         <v>462</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
+        <v>462</v>
+      </c>
+      <c r="E152" t="s">
         <v>463</v>
-      </c>
-      <c r="D152" t="s">
-        <v>463</v>
-      </c>
-      <c r="E152" t="s">
-        <v>464</v>
       </c>
       <c r="F152">
         <v>82957</v>
@@ -8354,19 +8260,19 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B153" t="s">
+        <v>464</v>
+      </c>
+      <c r="C153" t="s">
         <v>465</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
+        <v>465</v>
+      </c>
+      <c r="E153" t="s">
         <v>466</v>
-      </c>
-      <c r="D153" t="s">
-        <v>466</v>
-      </c>
-      <c r="E153" t="s">
-        <v>467</v>
       </c>
       <c r="F153">
         <v>83237</v>
@@ -8374,19 +8280,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>467</v>
+      </c>
+      <c r="B154" t="s">
         <v>468</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>469</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
+        <v>469</v>
+      </c>
+      <c r="E154" t="s">
         <v>470</v>
-      </c>
-      <c r="D154" t="s">
-        <v>470</v>
-      </c>
-      <c r="E154" t="s">
-        <v>471</v>
       </c>
       <c r="F154">
         <v>1240745</v>
@@ -8394,19 +8300,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s">
+        <v>471</v>
+      </c>
+      <c r="C155" t="s">
         <v>472</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
+        <v>472</v>
+      </c>
+      <c r="E155" t="s">
         <v>473</v>
-      </c>
-      <c r="D155" t="s">
-        <v>473</v>
-      </c>
-      <c r="E155" t="s">
-        <v>474</v>
       </c>
       <c r="F155">
         <v>1268111</v>
@@ -8414,19 +8320,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B156" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" t="s">
         <v>475</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
+        <v>475</v>
+      </c>
+      <c r="E156" t="s">
         <v>476</v>
-      </c>
-      <c r="D156" t="s">
-        <v>476</v>
-      </c>
-      <c r="E156" t="s">
-        <v>477</v>
       </c>
       <c r="F156">
         <v>1268545</v>
@@ -8434,19 +8340,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B157" t="s">
+        <v>477</v>
+      </c>
+      <c r="C157" t="s">
         <v>478</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
+        <v>478</v>
+      </c>
+      <c r="E157" t="s">
         <v>479</v>
-      </c>
-      <c r="D157" t="s">
-        <v>479</v>
-      </c>
-      <c r="E157" t="s">
-        <v>480</v>
       </c>
       <c r="F157">
         <v>1268637</v>
@@ -8454,19 +8360,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>480</v>
+      </c>
+      <c r="B158" t="s">
         <v>481</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>482</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
+        <v>482</v>
+      </c>
+      <c r="E158" t="s">
         <v>483</v>
-      </c>
-      <c r="D158" t="s">
-        <v>483</v>
-      </c>
-      <c r="E158" t="s">
-        <v>484</v>
       </c>
       <c r="F158">
         <v>107279</v>
@@ -8474,19 +8380,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B159" t="s">
+        <v>484</v>
+      </c>
+      <c r="C159" t="s">
         <v>485</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
+        <v>485</v>
+      </c>
+      <c r="E159" t="s">
         <v>486</v>
-      </c>
-      <c r="D159" t="s">
-        <v>486</v>
-      </c>
-      <c r="E159" t="s">
-        <v>487</v>
       </c>
       <c r="F159">
         <v>159144</v>
@@ -8494,19 +8400,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>487</v>
+      </c>
+      <c r="B160" t="s">
         <v>488</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>489</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
+        <v>489</v>
+      </c>
+      <c r="E160" t="s">
         <v>490</v>
-      </c>
-      <c r="D160" t="s">
-        <v>490</v>
-      </c>
-      <c r="E160" t="s">
-        <v>491</v>
       </c>
       <c r="F160">
         <v>401076</v>
@@ -8514,19 +8420,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B161" t="s">
+        <v>491</v>
+      </c>
+      <c r="C161" t="s">
         <v>492</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
+        <v>492</v>
+      </c>
+      <c r="E161" t="s">
         <v>493</v>
-      </c>
-      <c r="D161" t="s">
-        <v>493</v>
-      </c>
-      <c r="E161" t="s">
-        <v>494</v>
       </c>
       <c r="F161">
         <v>1222174</v>
@@ -8534,19 +8440,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B162" t="s">
+        <v>494</v>
+      </c>
+      <c r="C162" t="s">
         <v>495</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
+        <v>495</v>
+      </c>
+      <c r="E162" t="s">
         <v>496</v>
-      </c>
-      <c r="D162" t="s">
-        <v>496</v>
-      </c>
-      <c r="E162" t="s">
-        <v>497</v>
       </c>
       <c r="F162">
         <v>1268206</v>
@@ -8554,19 +8460,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B163" t="s">
+        <v>497</v>
+      </c>
+      <c r="C163" t="s">
         <v>498</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
+        <v>498</v>
+      </c>
+      <c r="E163" t="s">
         <v>499</v>
-      </c>
-      <c r="D163" t="s">
-        <v>499</v>
-      </c>
-      <c r="E163" t="s">
-        <v>500</v>
       </c>
       <c r="F163">
         <v>1268749</v>
@@ -8574,19 +8480,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>500</v>
+      </c>
+      <c r="B164" t="s">
         <v>501</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>502</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
+        <v>502</v>
+      </c>
+      <c r="E164" t="s">
         <v>503</v>
-      </c>
-      <c r="D164" t="s">
-        <v>503</v>
-      </c>
-      <c r="E164" t="s">
-        <v>504</v>
       </c>
       <c r="F164">
         <v>1266270</v>
@@ -8594,19 +8500,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>504</v>
+      </c>
+      <c r="B165" t="s">
         <v>505</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>506</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
+        <v>506</v>
+      </c>
+      <c r="E165" t="s">
         <v>507</v>
-      </c>
-      <c r="D165" t="s">
-        <v>507</v>
-      </c>
-      <c r="E165" t="s">
-        <v>508</v>
       </c>
       <c r="F165">
         <v>296546</v>
@@ -8614,19 +8520,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B166" t="s">
+        <v>508</v>
+      </c>
+      <c r="C166" t="s">
         <v>509</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>509</v>
+      </c>
+      <c r="E166" t="s">
         <v>510</v>
-      </c>
-      <c r="D166" t="s">
-        <v>510</v>
-      </c>
-      <c r="E166" t="s">
-        <v>511</v>
       </c>
       <c r="F166">
         <v>401162</v>
@@ -8634,19 +8540,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B167" t="s">
+        <v>511</v>
+      </c>
+      <c r="C167" t="s">
         <v>512</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>512</v>
+      </c>
+      <c r="E167" t="s">
         <v>513</v>
-      </c>
-      <c r="D167" t="s">
-        <v>513</v>
-      </c>
-      <c r="E167" t="s">
-        <v>514</v>
       </c>
       <c r="F167">
         <v>230595</v>
@@ -8654,19 +8560,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B168" t="s">
+        <v>514</v>
+      </c>
+      <c r="C168" t="s">
         <v>515</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
+        <v>515</v>
+      </c>
+      <c r="E168" t="s">
         <v>516</v>
-      </c>
-      <c r="D168" t="s">
-        <v>516</v>
-      </c>
-      <c r="E168" t="s">
-        <v>517</v>
       </c>
       <c r="F168">
         <v>230602</v>
@@ -8674,19 +8580,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B169" t="s">
+        <v>517</v>
+      </c>
+      <c r="C169" t="s">
         <v>518</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
+        <v>518</v>
+      </c>
+      <c r="E169" t="s">
         <v>519</v>
-      </c>
-      <c r="D169" t="s">
-        <v>519</v>
-      </c>
-      <c r="E169" t="s">
-        <v>520</v>
       </c>
       <c r="F169">
         <v>230640</v>
@@ -8694,19 +8600,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B170" t="s">
+        <v>520</v>
+      </c>
+      <c r="C170" t="s">
         <v>521</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
+        <v>521</v>
+      </c>
+      <c r="E170" t="s">
         <v>522</v>
-      </c>
-      <c r="D170" t="s">
-        <v>522</v>
-      </c>
-      <c r="E170" t="s">
-        <v>523</v>
       </c>
       <c r="F170">
         <v>230658</v>
@@ -8714,19 +8620,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B171" t="s">
+        <v>523</v>
+      </c>
+      <c r="C171" t="s">
         <v>524</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
+        <v>524</v>
+      </c>
+      <c r="E171" t="s">
         <v>525</v>
-      </c>
-      <c r="D171" t="s">
-        <v>525</v>
-      </c>
-      <c r="E171" t="s">
-        <v>526</v>
       </c>
       <c r="F171">
         <v>230699</v>
@@ -8734,19 +8640,19 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B172" t="s">
+        <v>526</v>
+      </c>
+      <c r="C172" t="s">
         <v>527</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
+        <v>527</v>
+      </c>
+      <c r="E172" t="s">
         <v>528</v>
-      </c>
-      <c r="D172" t="s">
-        <v>528</v>
-      </c>
-      <c r="E172" t="s">
-        <v>529</v>
       </c>
       <c r="F172">
         <v>230672</v>
@@ -8754,19 +8660,19 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B173" t="s">
+        <v>529</v>
+      </c>
+      <c r="C173" t="s">
         <v>530</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
+        <v>530</v>
+      </c>
+      <c r="E173" t="s">
         <v>531</v>
-      </c>
-      <c r="D173" t="s">
-        <v>531</v>
-      </c>
-      <c r="E173" t="s">
-        <v>532</v>
       </c>
       <c r="F173">
         <v>230820</v>
@@ -8774,19 +8680,19 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B174" t="s">
+        <v>532</v>
+      </c>
+      <c r="C174" t="s">
         <v>533</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
+        <v>533</v>
+      </c>
+      <c r="E174" t="s">
         <v>534</v>
-      </c>
-      <c r="D174" t="s">
-        <v>534</v>
-      </c>
-      <c r="E174" t="s">
-        <v>535</v>
       </c>
       <c r="F174">
         <v>89549</v>
@@ -8794,19 +8700,19 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B175" t="s">
+        <v>535</v>
+      </c>
+      <c r="C175" t="s">
         <v>536</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
+        <v>536</v>
+      </c>
+      <c r="E175" t="s">
         <v>537</v>
-      </c>
-      <c r="D175" t="s">
-        <v>537</v>
-      </c>
-      <c r="E175" t="s">
-        <v>538</v>
       </c>
       <c r="F175">
         <v>89487</v>
@@ -8814,19 +8720,19 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B176" t="s">
+        <v>538</v>
+      </c>
+      <c r="C176" t="s">
         <v>539</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
+        <v>539</v>
+      </c>
+      <c r="E176" t="s">
         <v>540</v>
-      </c>
-      <c r="D176" t="s">
-        <v>540</v>
-      </c>
-      <c r="E176" t="s">
-        <v>541</v>
       </c>
       <c r="F176">
         <v>89524</v>
@@ -8834,19 +8740,19 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B177" t="s">
+        <v>541</v>
+      </c>
+      <c r="C177" t="s">
         <v>542</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
+        <v>542</v>
+      </c>
+      <c r="E177" t="s">
         <v>543</v>
-      </c>
-      <c r="D177" t="s">
-        <v>543</v>
-      </c>
-      <c r="E177" t="s">
-        <v>544</v>
       </c>
       <c r="F177">
         <v>89471</v>
@@ -8854,19 +8760,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B178" t="s">
+        <v>544</v>
+      </c>
+      <c r="C178" t="s">
         <v>545</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
+        <v>545</v>
+      </c>
+      <c r="E178" t="s">
         <v>546</v>
-      </c>
-      <c r="D178" t="s">
-        <v>546</v>
-      </c>
-      <c r="E178" t="s">
-        <v>547</v>
       </c>
       <c r="F178">
         <v>89571</v>
@@ -8874,19 +8780,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B179" t="s">
+        <v>547</v>
+      </c>
+      <c r="C179" t="s">
         <v>548</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
+        <v>548</v>
+      </c>
+      <c r="E179" t="s">
         <v>549</v>
-      </c>
-      <c r="D179" t="s">
-        <v>549</v>
-      </c>
-      <c r="E179" t="s">
-        <v>550</v>
       </c>
       <c r="F179">
         <v>1239636</v>
@@ -8894,19 +8800,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B180" t="s">
+        <v>550</v>
+      </c>
+      <c r="C180" t="s">
         <v>551</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
+        <v>551</v>
+      </c>
+      <c r="E180" t="s">
         <v>552</v>
-      </c>
-      <c r="D180" t="s">
-        <v>552</v>
-      </c>
-      <c r="E180" t="s">
-        <v>553</v>
       </c>
       <c r="F180">
         <v>1239663</v>
@@ -8914,19 +8820,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B181" t="s">
+        <v>553</v>
+      </c>
+      <c r="C181" t="s">
         <v>554</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>554</v>
+      </c>
+      <c r="E181" t="s">
         <v>555</v>
-      </c>
-      <c r="D181" t="s">
-        <v>555</v>
-      </c>
-      <c r="E181" t="s">
-        <v>556</v>
       </c>
       <c r="F181">
         <v>1240203</v>
@@ -8934,19 +8840,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B182" t="s">
+        <v>556</v>
+      </c>
+      <c r="C182" t="s">
         <v>557</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>557</v>
+      </c>
+      <c r="E182" t="s">
         <v>558</v>
-      </c>
-      <c r="D182" t="s">
-        <v>558</v>
-      </c>
-      <c r="E182" t="s">
-        <v>559</v>
       </c>
       <c r="F182">
         <v>1240980</v>
@@ -8954,19 +8860,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B183" t="s">
+        <v>559</v>
+      </c>
+      <c r="C183" t="s">
         <v>560</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
+        <v>560</v>
+      </c>
+      <c r="E183" t="s">
         <v>561</v>
-      </c>
-      <c r="D183" t="s">
-        <v>561</v>
-      </c>
-      <c r="E183" t="s">
-        <v>562</v>
       </c>
       <c r="F183">
         <v>1268224</v>
@@ -8974,19 +8880,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B184" t="s">
+        <v>562</v>
+      </c>
+      <c r="C184" t="s">
         <v>563</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
+        <v>563</v>
+      </c>
+      <c r="E184" t="s">
         <v>564</v>
-      </c>
-      <c r="D184" t="s">
-        <v>564</v>
-      </c>
-      <c r="E184" t="s">
-        <v>565</v>
       </c>
       <c r="F184">
         <v>1268228</v>
@@ -8994,19 +8900,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B185" t="s">
+        <v>565</v>
+      </c>
+      <c r="C185" t="s">
         <v>566</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
+        <v>566</v>
+      </c>
+      <c r="E185" t="s">
         <v>567</v>
-      </c>
-      <c r="D185" t="s">
-        <v>567</v>
-      </c>
-      <c r="E185" t="s">
-        <v>568</v>
       </c>
       <c r="F185">
         <v>1268417</v>
@@ -9014,19 +8920,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B186" t="s">
+        <v>568</v>
+      </c>
+      <c r="C186" t="s">
         <v>569</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
+        <v>569</v>
+      </c>
+      <c r="E186" t="s">
         <v>570</v>
-      </c>
-      <c r="D186" t="s">
-        <v>570</v>
-      </c>
-      <c r="E186" t="s">
-        <v>571</v>
       </c>
       <c r="F186">
         <v>1268750</v>
@@ -9037,16 +8943,16 @@
         <v>122</v>
       </c>
       <c r="B187" t="s">
+        <v>571</v>
+      </c>
+      <c r="C187" t="s">
         <v>572</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>573</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>574</v>
-      </c>
-      <c r="E187" t="s">
-        <v>575</v>
       </c>
       <c r="F187">
         <v>1268243</v>
@@ -9054,19 +8960,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B188" t="s">
+        <v>575</v>
+      </c>
+      <c r="C188" t="s">
         <v>576</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>577</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>578</v>
-      </c>
-      <c r="E188" t="s">
-        <v>579</v>
       </c>
       <c r="F188">
         <v>225457</v>
@@ -9074,19 +8980,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>579</v>
+      </c>
+      <c r="B189" t="s">
         <v>580</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>581</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>582</v>
       </c>
-      <c r="D189" t="s">
+      <c r="E189" t="s">
         <v>583</v>
-      </c>
-      <c r="E189" t="s">
-        <v>584</v>
       </c>
       <c r="F189">
         <v>282978</v>
@@ -9094,19 +9000,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>584</v>
+      </c>
+      <c r="B190" t="s">
         <v>585</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>586</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>587</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>588</v>
-      </c>
-      <c r="E190" t="s">
-        <v>589</v>
       </c>
       <c r="F190">
         <v>1269232</v>
@@ -9117,16 +9023,16 @@
         <v>81</v>
       </c>
       <c r="B191" t="s">
+        <v>589</v>
+      </c>
+      <c r="C191" t="s">
         <v>590</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>591</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>592</v>
-      </c>
-      <c r="E191" t="s">
-        <v>593</v>
       </c>
       <c r="F191">
         <v>1268500</v>
@@ -9134,19 +9040,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B192" t="s">
+        <v>593</v>
+      </c>
+      <c r="C192" t="s">
         <v>594</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>595</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>596</v>
-      </c>
-      <c r="E192" t="s">
-        <v>597</v>
       </c>
       <c r="F192">
         <v>1208859</v>
@@ -9157,16 +9063,16 @@
         <v>60</v>
       </c>
       <c r="B193" t="s">
+        <v>597</v>
+      </c>
+      <c r="C193" t="s">
         <v>598</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>599</v>
       </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>600</v>
-      </c>
-      <c r="E193" t="s">
-        <v>601</v>
       </c>
       <c r="F193">
         <v>1266379</v>
@@ -9174,19 +9080,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B194" t="s">
+        <v>601</v>
+      </c>
+      <c r="C194" t="s">
         <v>602</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" t="s">
         <v>603</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>604</v>
-      </c>
-      <c r="E194" t="s">
-        <v>605</v>
       </c>
       <c r="F194">
         <v>400830</v>
@@ -9197,16 +9103,16 @@
         <v>249</v>
       </c>
       <c r="B195" t="s">
+        <v>605</v>
+      </c>
+      <c r="C195" t="s">
         <v>606</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>607</v>
       </c>
-      <c r="D195" t="s">
+      <c r="E195" t="s">
         <v>608</v>
-      </c>
-      <c r="E195" t="s">
-        <v>609</v>
       </c>
       <c r="F195">
         <v>35477</v>
@@ -9217,16 +9123,16 @@
         <v>249</v>
       </c>
       <c r="B196" t="s">
+        <v>609</v>
+      </c>
+      <c r="C196" t="s">
         <v>610</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>611</v>
       </c>
-      <c r="D196" t="s">
+      <c r="E196" t="s">
         <v>612</v>
-      </c>
-      <c r="E196" t="s">
-        <v>613</v>
       </c>
       <c r="F196">
         <v>43078</v>
@@ -9234,19 +9140,19 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B197" t="s">
+        <v>613</v>
+      </c>
+      <c r="C197" t="s">
         <v>614</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>615</v>
       </c>
-      <c r="D197" t="s">
+      <c r="E197" t="s">
         <v>616</v>
-      </c>
-      <c r="E197" t="s">
-        <v>617</v>
       </c>
       <c r="F197">
         <v>38446</v>
@@ -9257,16 +9163,16 @@
         <v>60</v>
       </c>
       <c r="B198" t="s">
+        <v>617</v>
+      </c>
+      <c r="C198" t="s">
         <v>618</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>619</v>
       </c>
-      <c r="D198" t="s">
+      <c r="E198" t="s">
         <v>620</v>
-      </c>
-      <c r="E198" t="s">
-        <v>621</v>
       </c>
       <c r="F198">
         <v>64782</v>
@@ -9274,19 +9180,19 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B199" t="s">
+        <v>621</v>
+      </c>
+      <c r="C199" t="s">
         <v>622</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>623</v>
       </c>
-      <c r="D199" t="s">
+      <c r="E199" t="s">
         <v>624</v>
-      </c>
-      <c r="E199" t="s">
-        <v>625</v>
       </c>
       <c r="F199">
         <v>38436</v>
@@ -9297,56 +9203,36 @@
         <v>287</v>
       </c>
       <c r="B200" t="s">
+        <v>625</v>
+      </c>
+      <c r="C200" t="s">
         <v>626</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>627</v>
       </c>
-      <c r="D200" t="s">
+      <c r="E200" t="s">
         <v>628</v>
-      </c>
-      <c r="E200" t="s">
-        <v>629</v>
       </c>
       <c r="F200">
         <v>1240221</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>168</v>
-      </c>
-      <c r="B201" t="s">
-        <v>630</v>
-      </c>
-      <c r="C201" t="s">
-        <v>631</v>
-      </c>
-      <c r="D201" t="s">
-        <v>200</v>
-      </c>
-      <c r="E201" t="s">
-        <v>201</v>
-      </c>
-      <c r="F201">
-        <v>167889</v>
-      </c>
-    </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B202" t="s">
+        <v>629</v>
+      </c>
+      <c r="C202" t="s">
+        <v>630</v>
+      </c>
+      <c r="D202" t="s">
+        <v>631</v>
+      </c>
+      <c r="E202" t="s">
         <v>632</v>
-      </c>
-      <c r="C202" t="s">
-        <v>633</v>
-      </c>
-      <c r="D202" t="s">
-        <v>634</v>
-      </c>
-      <c r="E202" t="s">
-        <v>635</v>
       </c>
       <c r="F202">
         <v>1240328</v>
@@ -9357,16 +9243,16 @@
         <v>122</v>
       </c>
       <c r="B203" t="s">
+        <v>633</v>
+      </c>
+      <c r="C203" t="s">
+        <v>634</v>
+      </c>
+      <c r="D203" t="s">
+        <v>635</v>
+      </c>
+      <c r="E203" t="s">
         <v>636</v>
-      </c>
-      <c r="C203" t="s">
-        <v>637</v>
-      </c>
-      <c r="D203" t="s">
-        <v>638</v>
-      </c>
-      <c r="E203" t="s">
-        <v>639</v>
       </c>
       <c r="F203">
         <v>1265532</v>
@@ -9374,19 +9260,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>637</v>
+      </c>
+      <c r="B204" t="s">
+        <v>638</v>
+      </c>
+      <c r="C204" t="s">
+        <v>639</v>
+      </c>
+      <c r="D204" t="s">
         <v>640</v>
       </c>
-      <c r="B204" t="s">
+      <c r="E204" t="s">
         <v>641</v>
-      </c>
-      <c r="C204" t="s">
-        <v>642</v>
-      </c>
-      <c r="D204" t="s">
-        <v>643</v>
-      </c>
-      <c r="E204" t="s">
-        <v>644</v>
       </c>
       <c r="F204">
         <v>1268130</v>
@@ -9394,19 +9280,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B205" t="s">
+        <v>642</v>
+      </c>
+      <c r="C205" t="s">
+        <v>643</v>
+      </c>
+      <c r="D205" t="s">
+        <v>644</v>
+      </c>
+      <c r="E205" t="s">
         <v>645</v>
-      </c>
-      <c r="C205" t="s">
-        <v>646</v>
-      </c>
-      <c r="D205" t="s">
-        <v>647</v>
-      </c>
-      <c r="E205" t="s">
-        <v>648</v>
       </c>
       <c r="F205">
         <v>1268214</v>
@@ -9417,16 +9303,16 @@
         <v>287</v>
       </c>
       <c r="B206" t="s">
+        <v>646</v>
+      </c>
+      <c r="C206" t="s">
+        <v>647</v>
+      </c>
+      <c r="D206" t="s">
+        <v>648</v>
+      </c>
+      <c r="E206" t="s">
         <v>649</v>
-      </c>
-      <c r="C206" t="s">
-        <v>650</v>
-      </c>
-      <c r="D206" t="s">
-        <v>651</v>
-      </c>
-      <c r="E206" t="s">
-        <v>652</v>
       </c>
       <c r="F206">
         <v>1239791</v>
@@ -9434,19 +9320,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B207" t="s">
+        <v>650</v>
+      </c>
+      <c r="C207" t="s">
+        <v>651</v>
+      </c>
+      <c r="D207" t="s">
+        <v>652</v>
+      </c>
+      <c r="E207" t="s">
         <v>653</v>
-      </c>
-      <c r="C207" t="s">
-        <v>654</v>
-      </c>
-      <c r="D207" t="s">
-        <v>655</v>
-      </c>
-      <c r="E207" t="s">
-        <v>656</v>
       </c>
       <c r="F207">
         <v>228915</v>
@@ -9457,16 +9343,16 @@
         <v>287</v>
       </c>
       <c r="B208" t="s">
+        <v>654</v>
+      </c>
+      <c r="C208" t="s">
+        <v>655</v>
+      </c>
+      <c r="D208" t="s">
+        <v>656</v>
+      </c>
+      <c r="E208" t="s">
         <v>657</v>
-      </c>
-      <c r="C208" t="s">
-        <v>658</v>
-      </c>
-      <c r="D208" t="s">
-        <v>659</v>
-      </c>
-      <c r="E208" t="s">
-        <v>660</v>
       </c>
       <c r="F208">
         <v>171188</v>
@@ -9474,19 +9360,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B209" t="s">
+        <v>658</v>
+      </c>
+      <c r="C209" t="s">
+        <v>659</v>
+      </c>
+      <c r="D209" t="s">
+        <v>660</v>
+      </c>
+      <c r="E209" t="s">
         <v>661</v>
-      </c>
-      <c r="C209" t="s">
-        <v>662</v>
-      </c>
-      <c r="D209" t="s">
-        <v>663</v>
-      </c>
-      <c r="E209" t="s">
-        <v>664</v>
       </c>
       <c r="F209">
         <v>65035</v>
@@ -9494,19 +9380,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B210" t="s">
+        <v>662</v>
+      </c>
+      <c r="C210" t="s">
+        <v>663</v>
+      </c>
+      <c r="D210" t="s">
+        <v>664</v>
+      </c>
+      <c r="E210" t="s">
         <v>665</v>
-      </c>
-      <c r="C210" t="s">
-        <v>666</v>
-      </c>
-      <c r="D210" t="s">
-        <v>667</v>
-      </c>
-      <c r="E210" t="s">
-        <v>668</v>
       </c>
       <c r="F210">
         <v>168785</v>
@@ -9514,19 +9400,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B211" t="s">
+        <v>666</v>
+      </c>
+      <c r="C211" t="s">
+        <v>667</v>
+      </c>
+      <c r="D211" t="s">
+        <v>668</v>
+      </c>
+      <c r="E211" t="s">
         <v>669</v>
-      </c>
-      <c r="C211" t="s">
-        <v>670</v>
-      </c>
-      <c r="D211" t="s">
-        <v>671</v>
-      </c>
-      <c r="E211" t="s">
-        <v>672</v>
       </c>
       <c r="F211">
         <v>37903</v>
@@ -9537,16 +9423,16 @@
         <v>168</v>
       </c>
       <c r="B212" t="s">
+        <v>670</v>
+      </c>
+      <c r="C212" t="s">
+        <v>671</v>
+      </c>
+      <c r="D212" t="s">
+        <v>672</v>
+      </c>
+      <c r="E212" t="s">
         <v>673</v>
-      </c>
-      <c r="C212" t="s">
-        <v>674</v>
-      </c>
-      <c r="D212" t="s">
-        <v>675</v>
-      </c>
-      <c r="E212" t="s">
-        <v>676</v>
       </c>
       <c r="F212">
         <v>1268307</v>
@@ -9557,16 +9443,16 @@
         <v>249</v>
       </c>
       <c r="B213" t="s">
+        <v>674</v>
+      </c>
+      <c r="C213" t="s">
+        <v>675</v>
+      </c>
+      <c r="D213" t="s">
+        <v>676</v>
+      </c>
+      <c r="E213" t="s">
         <v>677</v>
-      </c>
-      <c r="C213" t="s">
-        <v>678</v>
-      </c>
-      <c r="D213" t="s">
-        <v>679</v>
-      </c>
-      <c r="E213" t="s">
-        <v>680</v>
       </c>
       <c r="F213">
         <v>109398</v>
@@ -9574,19 +9460,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B214" t="s">
+        <v>678</v>
+      </c>
+      <c r="C214" t="s">
+        <v>679</v>
+      </c>
+      <c r="D214" t="s">
+        <v>680</v>
+      </c>
+      <c r="E214" t="s">
         <v>681</v>
-      </c>
-      <c r="C214" t="s">
-        <v>682</v>
-      </c>
-      <c r="D214" t="s">
-        <v>683</v>
-      </c>
-      <c r="E214" t="s">
-        <v>684</v>
       </c>
       <c r="F214">
         <v>230520</v>
@@ -9594,19 +9480,19 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B216" t="s">
+        <v>682</v>
+      </c>
+      <c r="C216" t="s">
+        <v>683</v>
+      </c>
+      <c r="D216" t="s">
+        <v>684</v>
+      </c>
+      <c r="E216" t="s">
         <v>685</v>
-      </c>
-      <c r="C216" t="s">
-        <v>686</v>
-      </c>
-      <c r="D216" t="s">
-        <v>687</v>
-      </c>
-      <c r="E216" t="s">
-        <v>688</v>
       </c>
       <c r="F216">
         <v>1268032</v>
@@ -9614,19 +9500,19 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>686</v>
+      </c>
+      <c r="B217" t="s">
+        <v>687</v>
+      </c>
+      <c r="C217" t="s">
+        <v>688</v>
+      </c>
+      <c r="D217" t="s">
         <v>689</v>
       </c>
-      <c r="B217" t="s">
+      <c r="E217" t="s">
         <v>690</v>
-      </c>
-      <c r="C217" t="s">
-        <v>691</v>
-      </c>
-      <c r="D217" t="s">
-        <v>692</v>
-      </c>
-      <c r="E217" t="s">
-        <v>693</v>
       </c>
       <c r="F217">
         <v>108432</v>
@@ -9637,16 +9523,16 @@
         <v>168</v>
       </c>
       <c r="B218" t="s">
+        <v>691</v>
+      </c>
+      <c r="C218" t="s">
+        <v>692</v>
+      </c>
+      <c r="D218" t="s">
+        <v>693</v>
+      </c>
+      <c r="E218" t="s">
         <v>694</v>
-      </c>
-      <c r="C218" t="s">
-        <v>695</v>
-      </c>
-      <c r="D218" t="s">
-        <v>696</v>
-      </c>
-      <c r="E218" t="s">
-        <v>697</v>
       </c>
       <c r="F218">
         <v>35307</v>
@@ -9657,16 +9543,16 @@
         <v>136</v>
       </c>
       <c r="B219" t="s">
+        <v>695</v>
+      </c>
+      <c r="C219" t="s">
+        <v>696</v>
+      </c>
+      <c r="D219" t="s">
+        <v>697</v>
+      </c>
+      <c r="E219" t="s">
         <v>698</v>
-      </c>
-      <c r="C219" t="s">
-        <v>699</v>
-      </c>
-      <c r="D219" t="s">
-        <v>700</v>
-      </c>
-      <c r="E219" t="s">
-        <v>701</v>
       </c>
       <c r="F219">
         <v>1270189</v>
@@ -9677,16 +9563,16 @@
         <v>168</v>
       </c>
       <c r="B220" t="s">
+        <v>699</v>
+      </c>
+      <c r="C220" t="s">
+        <v>700</v>
+      </c>
+      <c r="D220" t="s">
+        <v>701</v>
+      </c>
+      <c r="E220" t="s">
         <v>702</v>
-      </c>
-      <c r="C220" t="s">
-        <v>703</v>
-      </c>
-      <c r="D220" t="s">
-        <v>704</v>
-      </c>
-      <c r="E220" t="s">
-        <v>705</v>
       </c>
       <c r="F220">
         <v>47265</v>
@@ -9697,16 +9583,16 @@
         <v>168</v>
       </c>
       <c r="B221" t="s">
+        <v>703</v>
+      </c>
+      <c r="C221" t="s">
+        <v>704</v>
+      </c>
+      <c r="D221" t="s">
+        <v>705</v>
+      </c>
+      <c r="E221" t="s">
         <v>706</v>
-      </c>
-      <c r="C221" t="s">
-        <v>707</v>
-      </c>
-      <c r="D221" t="s">
-        <v>708</v>
-      </c>
-      <c r="E221" t="s">
-        <v>709</v>
       </c>
       <c r="F221">
         <v>35326</v>
@@ -9714,19 +9600,19 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B222" t="s">
+        <v>707</v>
+      </c>
+      <c r="C222" t="s">
+        <v>708</v>
+      </c>
+      <c r="D222" t="s">
+        <v>709</v>
+      </c>
+      <c r="E222" t="s">
         <v>710</v>
-      </c>
-      <c r="C222" t="s">
-        <v>711</v>
-      </c>
-      <c r="D222" t="s">
-        <v>712</v>
-      </c>
-      <c r="E222" t="s">
-        <v>713</v>
       </c>
       <c r="F222">
         <v>87397</v>
@@ -9737,16 +9623,16 @@
         <v>78</v>
       </c>
       <c r="B223" t="s">
+        <v>711</v>
+      </c>
+      <c r="C223" t="s">
+        <v>712</v>
+      </c>
+      <c r="D223" t="s">
+        <v>713</v>
+      </c>
+      <c r="E223" t="s">
         <v>714</v>
-      </c>
-      <c r="C223" t="s">
-        <v>715</v>
-      </c>
-      <c r="D223" t="s">
-        <v>716</v>
-      </c>
-      <c r="E223" t="s">
-        <v>717</v>
       </c>
       <c r="F223">
         <v>48353</v>
@@ -9757,16 +9643,16 @@
         <v>78</v>
       </c>
       <c r="B224" t="s">
+        <v>715</v>
+      </c>
+      <c r="C224" t="s">
+        <v>716</v>
+      </c>
+      <c r="D224" t="s">
+        <v>717</v>
+      </c>
+      <c r="E224" t="s">
         <v>718</v>
-      </c>
-      <c r="C224" t="s">
-        <v>719</v>
-      </c>
-      <c r="D224" t="s">
-        <v>720</v>
-      </c>
-      <c r="E224" t="s">
-        <v>721</v>
       </c>
       <c r="F224">
         <v>32902</v>
@@ -9777,16 +9663,16 @@
         <v>78</v>
       </c>
       <c r="B225" t="s">
+        <v>719</v>
+      </c>
+      <c r="C225" t="s">
+        <v>720</v>
+      </c>
+      <c r="D225" t="s">
+        <v>721</v>
+      </c>
+      <c r="E225" t="s">
         <v>722</v>
-      </c>
-      <c r="C225" t="s">
-        <v>723</v>
-      </c>
-      <c r="D225" t="s">
-        <v>724</v>
-      </c>
-      <c r="E225" t="s">
-        <v>725</v>
       </c>
       <c r="F225">
         <v>1265315</v>
@@ -9794,19 +9680,19 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>723</v>
+      </c>
+      <c r="B226" t="s">
+        <v>724</v>
+      </c>
+      <c r="C226" t="s">
+        <v>725</v>
+      </c>
+      <c r="D226" t="s">
         <v>726</v>
       </c>
-      <c r="B226" t="s">
+      <c r="E226" t="s">
         <v>727</v>
-      </c>
-      <c r="C226" t="s">
-        <v>728</v>
-      </c>
-      <c r="D226" t="s">
-        <v>729</v>
-      </c>
-      <c r="E226" t="s">
-        <v>730</v>
       </c>
       <c r="F226">
         <v>85783</v>
@@ -9817,16 +9703,16 @@
         <v>287</v>
       </c>
       <c r="B227" t="s">
+        <v>728</v>
+      </c>
+      <c r="C227" t="s">
+        <v>729</v>
+      </c>
+      <c r="D227" t="s">
+        <v>730</v>
+      </c>
+      <c r="E227" t="s">
         <v>731</v>
-      </c>
-      <c r="C227" t="s">
-        <v>732</v>
-      </c>
-      <c r="D227" t="s">
-        <v>733</v>
-      </c>
-      <c r="E227" t="s">
-        <v>734</v>
       </c>
       <c r="F227">
         <v>1268313</v>
@@ -9834,19 +9720,19 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B228" t="s">
+        <v>732</v>
+      </c>
+      <c r="C228" t="s">
+        <v>733</v>
+      </c>
+      <c r="D228" t="s">
+        <v>734</v>
+      </c>
+      <c r="E228" t="s">
         <v>735</v>
-      </c>
-      <c r="C228" t="s">
-        <v>736</v>
-      </c>
-      <c r="D228" t="s">
-        <v>737</v>
-      </c>
-      <c r="E228" t="s">
-        <v>738</v>
       </c>
       <c r="F228">
         <v>224972</v>
@@ -9857,16 +9743,16 @@
         <v>78</v>
       </c>
       <c r="B229" t="s">
+        <v>736</v>
+      </c>
+      <c r="C229" t="s">
+        <v>737</v>
+      </c>
+      <c r="D229" t="s">
+        <v>738</v>
+      </c>
+      <c r="E229" t="s">
         <v>739</v>
-      </c>
-      <c r="C229" t="s">
-        <v>740</v>
-      </c>
-      <c r="D229" t="s">
-        <v>741</v>
-      </c>
-      <c r="E229" t="s">
-        <v>742</v>
       </c>
       <c r="F229">
         <v>398467</v>
@@ -9877,16 +9763,16 @@
         <v>78</v>
       </c>
       <c r="B230" t="s">
+        <v>740</v>
+      </c>
+      <c r="C230" t="s">
+        <v>741</v>
+      </c>
+      <c r="D230" t="s">
+        <v>742</v>
+      </c>
+      <c r="E230" t="s">
         <v>743</v>
-      </c>
-      <c r="C230" t="s">
-        <v>744</v>
-      </c>
-      <c r="D230" t="s">
-        <v>745</v>
-      </c>
-      <c r="E230" t="s">
-        <v>746</v>
       </c>
       <c r="F230">
         <v>1238148</v>
@@ -9897,16 +9783,16 @@
         <v>371</v>
       </c>
       <c r="B231" t="s">
+        <v>744</v>
+      </c>
+      <c r="C231" t="s">
+        <v>745</v>
+      </c>
+      <c r="D231" t="s">
+        <v>746</v>
+      </c>
+      <c r="E231" t="s">
         <v>747</v>
-      </c>
-      <c r="C231" t="s">
-        <v>748</v>
-      </c>
-      <c r="D231" t="s">
-        <v>749</v>
-      </c>
-      <c r="E231" t="s">
-        <v>750</v>
       </c>
       <c r="F231">
         <v>225253</v>
@@ -9917,16 +9803,16 @@
         <v>249</v>
       </c>
       <c r="B232" t="s">
+        <v>748</v>
+      </c>
+      <c r="C232" t="s">
+        <v>749</v>
+      </c>
+      <c r="D232" t="s">
+        <v>750</v>
+      </c>
+      <c r="E232" t="s">
         <v>751</v>
-      </c>
-      <c r="C232" t="s">
-        <v>752</v>
-      </c>
-      <c r="D232" t="s">
-        <v>753</v>
-      </c>
-      <c r="E232" t="s">
-        <v>754</v>
       </c>
       <c r="F232">
         <v>1238862</v>
@@ -9934,19 +9820,19 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B233" t="s">
+        <v>752</v>
+      </c>
+      <c r="C233" t="s">
+        <v>753</v>
+      </c>
+      <c r="D233" t="s">
+        <v>754</v>
+      </c>
+      <c r="E233" t="s">
         <v>755</v>
-      </c>
-      <c r="C233" t="s">
-        <v>756</v>
-      </c>
-      <c r="D233" t="s">
-        <v>757</v>
-      </c>
-      <c r="E233" t="s">
-        <v>758</v>
       </c>
       <c r="F233">
         <v>224973</v>
@@ -9954,19 +9840,19 @@
     </row>
     <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B234" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="F234" s="2">
         <v>1269270</v>
@@ -9977,16 +9863,16 @@
         <v>78</v>
       </c>
       <c r="B235" t="s">
+        <v>760</v>
+      </c>
+      <c r="C235" t="s">
+        <v>761</v>
+      </c>
+      <c r="D235" t="s">
+        <v>762</v>
+      </c>
+      <c r="E235" t="s">
         <v>763</v>
-      </c>
-      <c r="C235" t="s">
-        <v>764</v>
-      </c>
-      <c r="D235" t="s">
-        <v>765</v>
-      </c>
-      <c r="E235" t="s">
-        <v>766</v>
       </c>
       <c r="F235">
         <v>1238171</v>
@@ -9997,16 +9883,16 @@
         <v>168</v>
       </c>
       <c r="B236" t="s">
+        <v>764</v>
+      </c>
+      <c r="C236" t="s">
+        <v>765</v>
+      </c>
+      <c r="D236" t="s">
+        <v>766</v>
+      </c>
+      <c r="E236" t="s">
         <v>767</v>
-      </c>
-      <c r="C236" t="s">
-        <v>768</v>
-      </c>
-      <c r="D236" t="s">
-        <v>769</v>
-      </c>
-      <c r="E236" t="s">
-        <v>770</v>
       </c>
       <c r="F236">
         <v>282428</v>
@@ -10014,19 +9900,19 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B237" t="s">
+        <v>768</v>
+      </c>
+      <c r="C237" t="s">
+        <v>769</v>
+      </c>
+      <c r="D237" t="s">
+        <v>770</v>
+      </c>
+      <c r="E237" t="s">
         <v>771</v>
-      </c>
-      <c r="C237" t="s">
-        <v>772</v>
-      </c>
-      <c r="D237" t="s">
-        <v>773</v>
-      </c>
-      <c r="E237" t="s">
-        <v>774</v>
       </c>
       <c r="F237">
         <v>86466</v>
@@ -10034,19 +9920,19 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B238" t="s">
+        <v>772</v>
+      </c>
+      <c r="C238" t="s">
+        <v>773</v>
+      </c>
+      <c r="D238" t="s">
+        <v>774</v>
+      </c>
+      <c r="E238" t="s">
         <v>775</v>
-      </c>
-      <c r="C238" t="s">
-        <v>776</v>
-      </c>
-      <c r="D238" t="s">
-        <v>777</v>
-      </c>
-      <c r="E238" t="s">
-        <v>778</v>
       </c>
       <c r="F238">
         <v>1240909</v>
@@ -10054,19 +9940,19 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B239" t="s">
+        <v>776</v>
+      </c>
+      <c r="C239" t="s">
+        <v>777</v>
+      </c>
+      <c r="D239" t="s">
+        <v>778</v>
+      </c>
+      <c r="E239" t="s">
         <v>779</v>
-      </c>
-      <c r="C239" t="s">
-        <v>780</v>
-      </c>
-      <c r="D239" t="s">
-        <v>781</v>
-      </c>
-      <c r="E239" t="s">
-        <v>782</v>
       </c>
       <c r="F239">
         <v>1268129</v>
@@ -10074,19 +9960,19 @@
     </row>
     <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="E240" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="F240" s="2">
         <v>1269677</v>
@@ -10094,19 +9980,19 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B241" t="s">
+        <v>785</v>
+      </c>
+      <c r="C241" t="s">
+        <v>786</v>
+      </c>
+      <c r="D241" t="s">
+        <v>787</v>
+      </c>
+      <c r="E241" t="s">
         <v>788</v>
-      </c>
-      <c r="C241" t="s">
-        <v>789</v>
-      </c>
-      <c r="D241" t="s">
-        <v>790</v>
-      </c>
-      <c r="E241" t="s">
-        <v>791</v>
       </c>
       <c r="F241">
         <v>85053</v>
@@ -10117,16 +10003,16 @@
         <v>78</v>
       </c>
       <c r="B242" t="s">
+        <v>789</v>
+      </c>
+      <c r="C242" t="s">
+        <v>790</v>
+      </c>
+      <c r="D242" t="s">
+        <v>791</v>
+      </c>
+      <c r="E242" t="s">
         <v>792</v>
-      </c>
-      <c r="C242" t="s">
-        <v>793</v>
-      </c>
-      <c r="D242" t="s">
-        <v>794</v>
-      </c>
-      <c r="E242" t="s">
-        <v>795</v>
       </c>
       <c r="F242">
         <v>47456</v>
@@ -10137,16 +10023,16 @@
         <v>168</v>
       </c>
       <c r="B243" t="s">
+        <v>793</v>
+      </c>
+      <c r="C243" t="s">
+        <v>794</v>
+      </c>
+      <c r="D243" t="s">
+        <v>795</v>
+      </c>
+      <c r="E243" t="s">
         <v>796</v>
-      </c>
-      <c r="C243" t="s">
-        <v>797</v>
-      </c>
-      <c r="D243" t="s">
-        <v>798</v>
-      </c>
-      <c r="E243" t="s">
-        <v>799</v>
       </c>
       <c r="F243">
         <v>224848</v>
@@ -10154,19 +10040,19 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B244" t="s">
+        <v>797</v>
+      </c>
+      <c r="C244" t="s">
+        <v>798</v>
+      </c>
+      <c r="D244" t="s">
+        <v>799</v>
+      </c>
+      <c r="E244" t="s">
         <v>800</v>
-      </c>
-      <c r="C244" t="s">
-        <v>801</v>
-      </c>
-      <c r="D244" t="s">
-        <v>802</v>
-      </c>
-      <c r="E244" t="s">
-        <v>803</v>
       </c>
       <c r="F244">
         <v>86185</v>
@@ -10177,16 +10063,16 @@
         <v>60</v>
       </c>
       <c r="B245" t="s">
+        <v>801</v>
+      </c>
+      <c r="C245" t="s">
+        <v>802</v>
+      </c>
+      <c r="D245" t="s">
+        <v>803</v>
+      </c>
+      <c r="E245" t="s">
         <v>804</v>
-      </c>
-      <c r="C245" t="s">
-        <v>805</v>
-      </c>
-      <c r="D245" t="s">
-        <v>806</v>
-      </c>
-      <c r="E245" t="s">
-        <v>807</v>
       </c>
       <c r="F245">
         <v>1270231</v>
@@ -10194,19 +10080,19 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B246" t="s">
+        <v>805</v>
+      </c>
+      <c r="C246" t="s">
+        <v>806</v>
+      </c>
+      <c r="D246" t="s">
+        <v>807</v>
+      </c>
+      <c r="E246" t="s">
         <v>808</v>
-      </c>
-      <c r="C246" t="s">
-        <v>809</v>
-      </c>
-      <c r="D246" t="s">
-        <v>810</v>
-      </c>
-      <c r="E246" t="s">
-        <v>811</v>
       </c>
       <c r="F246">
         <v>108496</v>
@@ -10214,19 +10100,19 @@
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B247" t="s">
+        <v>809</v>
+      </c>
+      <c r="C247" t="s">
+        <v>810</v>
+      </c>
+      <c r="D247" t="s">
+        <v>811</v>
+      </c>
+      <c r="E247" t="s">
         <v>812</v>
-      </c>
-      <c r="C247" t="s">
-        <v>813</v>
-      </c>
-      <c r="D247" t="s">
-        <v>814</v>
-      </c>
-      <c r="E247" t="s">
-        <v>815</v>
       </c>
       <c r="F247">
         <v>224976</v>
@@ -10237,16 +10123,16 @@
         <v>168</v>
       </c>
       <c r="B248" t="s">
+        <v>813</v>
+      </c>
+      <c r="C248" t="s">
+        <v>814</v>
+      </c>
+      <c r="D248" t="s">
+        <v>815</v>
+      </c>
+      <c r="E248" t="s">
         <v>816</v>
-      </c>
-      <c r="C248" t="s">
-        <v>817</v>
-      </c>
-      <c r="D248" t="s">
-        <v>818</v>
-      </c>
-      <c r="E248" t="s">
-        <v>819</v>
       </c>
       <c r="F248">
         <v>35263</v>
@@ -10257,16 +10143,16 @@
         <v>168</v>
       </c>
       <c r="B249" t="s">
+        <v>817</v>
+      </c>
+      <c r="C249" t="s">
+        <v>818</v>
+      </c>
+      <c r="D249" t="s">
+        <v>819</v>
+      </c>
+      <c r="E249" t="s">
         <v>820</v>
-      </c>
-      <c r="C249" t="s">
-        <v>821</v>
-      </c>
-      <c r="D249" t="s">
-        <v>822</v>
-      </c>
-      <c r="E249" t="s">
-        <v>823</v>
       </c>
       <c r="F249">
         <v>282453</v>
@@ -10278,16 +10164,16 @@
         <v>67</v>
       </c>
       <c r="B251" t="s">
+        <v>822</v>
+      </c>
+      <c r="C251" t="s">
+        <v>823</v>
+      </c>
+      <c r="D251" t="s">
+        <v>824</v>
+      </c>
+      <c r="E251" t="s">
         <v>825</v>
-      </c>
-      <c r="C251" t="s">
-        <v>826</v>
-      </c>
-      <c r="D251" t="s">
-        <v>827</v>
-      </c>
-      <c r="E251" t="s">
-        <v>828</v>
       </c>
       <c r="F251">
         <v>163215</v>
@@ -10298,16 +10184,16 @@
         <v>168</v>
       </c>
       <c r="B252" t="s">
+        <v>826</v>
+      </c>
+      <c r="C252" t="s">
+        <v>827</v>
+      </c>
+      <c r="D252" t="s">
+        <v>828</v>
+      </c>
+      <c r="E252" t="s">
         <v>829</v>
-      </c>
-      <c r="C252" t="s">
-        <v>830</v>
-      </c>
-      <c r="D252" t="s">
-        <v>831</v>
-      </c>
-      <c r="E252" t="s">
-        <v>832</v>
       </c>
       <c r="F252">
         <v>35189</v>
@@ -10315,19 +10201,19 @@
     </row>
     <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B253" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E253" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="F253" s="2">
         <v>1267168</v>
@@ -10335,19 +10221,19 @@
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B254" t="s">
+        <v>834</v>
+      </c>
+      <c r="C254" t="s">
+        <v>835</v>
+      </c>
+      <c r="D254" t="s">
+        <v>836</v>
+      </c>
+      <c r="E254" t="s">
         <v>837</v>
-      </c>
-      <c r="C254" t="s">
-        <v>838</v>
-      </c>
-      <c r="D254" t="s">
-        <v>839</v>
-      </c>
-      <c r="E254" t="s">
-        <v>840</v>
       </c>
       <c r="F254">
         <v>1239333</v>
@@ -10358,16 +10244,16 @@
         <v>287</v>
       </c>
       <c r="B255" t="s">
+        <v>838</v>
+      </c>
+      <c r="C255" t="s">
+        <v>839</v>
+      </c>
+      <c r="D255" t="s">
+        <v>840</v>
+      </c>
+      <c r="E255" t="s">
         <v>841</v>
-      </c>
-      <c r="C255" t="s">
-        <v>842</v>
-      </c>
-      <c r="D255" t="s">
-        <v>843</v>
-      </c>
-      <c r="E255" t="s">
-        <v>844</v>
       </c>
       <c r="F255">
         <v>1240306</v>
@@ -10375,19 +10261,19 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B256" t="s">
+        <v>842</v>
+      </c>
+      <c r="C256" t="s">
+        <v>843</v>
+      </c>
+      <c r="D256" t="s">
+        <v>844</v>
+      </c>
+      <c r="E256" t="s">
         <v>845</v>
-      </c>
-      <c r="C256" t="s">
-        <v>846</v>
-      </c>
-      <c r="D256" t="s">
-        <v>847</v>
-      </c>
-      <c r="E256" t="s">
-        <v>848</v>
       </c>
       <c r="F256">
         <v>46386</v>
@@ -10395,19 +10281,19 @@
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B257" t="s">
+        <v>846</v>
+      </c>
+      <c r="C257" t="s">
+        <v>847</v>
+      </c>
+      <c r="D257" t="s">
+        <v>848</v>
+      </c>
+      <c r="E257" t="s">
         <v>849</v>
-      </c>
-      <c r="C257" t="s">
-        <v>850</v>
-      </c>
-      <c r="D257" t="s">
-        <v>851</v>
-      </c>
-      <c r="E257" t="s">
-        <v>852</v>
       </c>
       <c r="F257">
         <v>230725</v>
@@ -10415,19 +10301,19 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B258" t="s">
+        <v>850</v>
+      </c>
+      <c r="C258" t="s">
+        <v>851</v>
+      </c>
+      <c r="D258" t="s">
+        <v>852</v>
+      </c>
+      <c r="E258" t="s">
         <v>853</v>
-      </c>
-      <c r="C258" t="s">
-        <v>854</v>
-      </c>
-      <c r="D258" t="s">
-        <v>855</v>
-      </c>
-      <c r="E258" t="s">
-        <v>856</v>
       </c>
       <c r="F258">
         <v>230782</v>
@@ -10435,19 +10321,19 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B259" t="s">
+        <v>854</v>
+      </c>
+      <c r="C259" t="s">
+        <v>855</v>
+      </c>
+      <c r="D259" t="s">
+        <v>856</v>
+      </c>
+      <c r="E259" t="s">
         <v>857</v>
-      </c>
-      <c r="C259" t="s">
-        <v>858</v>
-      </c>
-      <c r="D259" t="s">
-        <v>859</v>
-      </c>
-      <c r="E259" t="s">
-        <v>860</v>
       </c>
       <c r="F259">
         <v>1239640</v>
@@ -10455,82 +10341,22 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B260" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C260" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="D260" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E260" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="F260">
         <v>82297</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>287</v>
-      </c>
-      <c r="B261" t="s">
-        <v>864</v>
-      </c>
-      <c r="C261" t="s">
-        <v>865</v>
-      </c>
-      <c r="D261" t="s">
-        <v>298</v>
-      </c>
-      <c r="E261" t="s">
-        <v>299</v>
-      </c>
-      <c r="F261">
-        <v>35790</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>5</v>
-      </c>
-      <c r="B262" t="s">
-        <v>866</v>
-      </c>
-      <c r="C262" t="s">
-        <v>867</v>
-      </c>
-      <c r="D262" t="s">
-        <v>52</v>
-      </c>
-      <c r="E262" t="s">
-        <v>53</v>
-      </c>
-      <c r="F262">
-        <v>146514</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>78</v>
-      </c>
-      <c r="B263" t="s">
-        <v>868</v>
-      </c>
-      <c r="C263" t="s">
-        <v>869</v>
-      </c>
-      <c r="D263" t="s">
-        <v>870</v>
-      </c>
-      <c r="E263" t="s">
-        <v>871</v>
-      </c>
-      <c r="F263">
-        <v>1267742</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.2">
@@ -10538,16 +10364,16 @@
         <v>78</v>
       </c>
       <c r="B264" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="C264" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="D264" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="E264" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="F264">
         <v>1268265</v>
@@ -10555,19 +10381,19 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B265" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="C265" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="D265" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="E265" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="F265">
         <v>1239247</v>
@@ -10578,16 +10404,16 @@
         <v>5</v>
       </c>
       <c r="B266" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C266" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D266" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E266" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F266">
         <v>67836</v>
@@ -10598,16 +10424,16 @@
         <v>67</v>
       </c>
       <c r="B267" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="C267" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="D267" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="E267" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="F267">
         <v>162893</v>
@@ -10618,16 +10444,16 @@
         <v>71</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="F268" s="2">
         <v>399354</v>
@@ -10638,16 +10464,16 @@
         <v>71</v>
       </c>
       <c r="B269" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="C269" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="D269" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="E269" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="F269">
         <v>224632</v>
@@ -10658,16 +10484,16 @@
         <v>71</v>
       </c>
       <c r="B270" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="C270" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="D270" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="E270" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="F270">
         <v>224656</v>
@@ -10678,16 +10504,16 @@
         <v>168</v>
       </c>
       <c r="B271" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="C271" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D271" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="E271" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="F271">
         <v>35268</v>
@@ -10698,16 +10524,16 @@
         <v>249</v>
       </c>
       <c r="B272" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="C272" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="D272" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="E272" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="F272">
         <v>1268924</v>
@@ -10718,16 +10544,16 @@
         <v>287</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="F273" s="2">
         <v>81932</v>
@@ -10735,19 +10561,19 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B274" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="C274" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="D274" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="E274" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="F274">
         <v>1240201</v>
@@ -10758,16 +10584,16 @@
         <v>164</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="F275" s="2">
         <v>1268273</v>
@@ -10778,16 +10604,16 @@
         <v>78</v>
       </c>
       <c r="B276" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="C276" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="D276" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="E276" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="F276">
         <v>32928</v>
@@ -10798,16 +10624,16 @@
         <v>168</v>
       </c>
       <c r="B277" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="C277" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="D277" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="E277" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="F277">
         <v>35330</v>
@@ -10815,19 +10641,19 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B278" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="C278" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="D278" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E278" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="F278">
         <v>85959</v>
@@ -10835,19 +10661,19 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B279" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="C279" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="D279" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E279" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F279">
         <v>86764</v>
@@ -10858,16 +10684,16 @@
         <v>78</v>
       </c>
       <c r="B280" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="C280" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="D280" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="E280" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="F280">
         <v>1266451</v>
@@ -10878,16 +10704,16 @@
         <v>287</v>
       </c>
       <c r="B281" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="C281" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="D281" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="E281" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="F281">
         <v>1267986</v>
@@ -10895,19 +10721,19 @@
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B282" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="C282" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D282" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="E282" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="F282">
         <v>1239072</v>
@@ -10918,16 +10744,16 @@
         <v>371</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="F283" s="2">
         <v>82142</v>
@@ -10935,19 +10761,19 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B284" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="C284" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="D284" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="E284" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F284">
         <v>224978</v>
@@ -10955,19 +10781,19 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B285" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="C285" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="D285" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="E285" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="F285">
         <v>399714</v>
@@ -10975,19 +10801,19 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B286" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="C286" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D286" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E286" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="F286">
         <v>1027281</v>
@@ -10998,16 +10824,16 @@
         <v>249</v>
       </c>
       <c r="B287" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="C287" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="D287" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="E287" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="F287">
         <v>1267969</v>
@@ -11018,16 +10844,16 @@
         <v>60</v>
       </c>
       <c r="B288" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="C288" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="D288" t="s">
-        <v>600</v>
-      </c>
-      <c r="E288" t="s">
-        <v>601</v>
+        <v>599</v>
+      </c>
+      <c r="E288" s="9">
+        <v>806960</v>
       </c>
       <c r="F288">
         <v>1268884</v>
@@ -11035,19 +10861,19 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B289" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="C289" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="D289" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="E289" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="F289">
         <v>1266699</v>
@@ -11055,19 +10881,19 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B290" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="C290" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D290" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="E290" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
       <c r="F290">
         <v>1266700</v>
@@ -11075,19 +10901,19 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B291" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
       <c r="C291" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D291" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="E291" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="F291">
         <v>1240236</v>
@@ -11095,19 +10921,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B292" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="C292" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
       <c r="D292" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
       <c r="E292" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F292">
         <v>1265317</v>
@@ -11115,19 +10941,19 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B293" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
       <c r="C293" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D293" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
       <c r="E293" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
       <c r="F293">
         <v>1240979</v>
@@ -11138,16 +10964,16 @@
         <v>81</v>
       </c>
       <c r="B294" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
       <c r="C294" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
       <c r="D294" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
       <c r="E294" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
       <c r="F294">
         <v>109964</v>
@@ -11158,16 +10984,16 @@
         <v>5</v>
       </c>
       <c r="B295" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
       <c r="C295" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
       <c r="D295" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="E295" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
       <c r="F295">
         <v>67387</v>
@@ -11175,19 +11001,19 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B296" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
       <c r="C296" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
       <c r="D296" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
       <c r="E296" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
       <c r="F296">
         <v>30774</v>
@@ -11195,19 +11021,19 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B297" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
       <c r="C297" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
       <c r="D297" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
       <c r="E297" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="F297">
         <v>198305</v>
@@ -11215,19 +11041,19 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B298" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="C298" t="s">
-        <v>1007</v>
+        <v>998</v>
       </c>
       <c r="D298" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="E298" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="F298">
         <v>1239046</v>
@@ -11235,42 +11061,22 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B299" t="s">
-        <v>1010</v>
+        <v>1001</v>
       </c>
       <c r="C299" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D299" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E299" t="s">
-        <v>1013</v>
+        <v>1004</v>
       </c>
       <c r="F299">
         <v>1269854</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>78</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C300" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D300" t="s">
-        <v>720</v>
-      </c>
-      <c r="E300" t="s">
-        <v>721</v>
-      </c>
-      <c r="F300">
-        <v>32955</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
@@ -11278,16 +11084,16 @@
         <v>168</v>
       </c>
       <c r="B301" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="C301" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="D301" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="E301" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="F301">
         <v>224849</v>
@@ -11295,19 +11101,19 @@
     </row>
     <row r="302" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="F302" s="2">
         <v>1266698</v>
@@ -11318,13 +11124,13 @@
         <v>287</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="E303" s="4">
         <v>3403990</v>
@@ -11335,19 +11141,19 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B304" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="C304" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="D304" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="E304" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="F304">
         <v>43164</v>
@@ -11358,16 +11164,16 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="C305" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="D305" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="E305" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="F305">
         <v>1269433</v>
@@ -11378,16 +11184,16 @@
         <v>78</v>
       </c>
       <c r="B306" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="C306" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="D306" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="E306" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="F306">
         <v>42100</v>
@@ -11395,19 +11201,19 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B307" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="C307" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="D307" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="E307" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="F307">
         <v>108502</v>
@@ -11415,19 +11221,19 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B308" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="C308" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="D308" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="E308" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="F308">
         <v>88964</v>
@@ -11435,19 +11241,19 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B309" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="C309" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="D309" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="E309" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="F309">
         <v>103211</v>
@@ -11455,19 +11261,19 @@
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B310" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="C310" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="D310" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="E310" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="F310">
         <v>1239652</v>
@@ -11478,16 +11284,16 @@
         <v>81</v>
       </c>
       <c r="B311" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="C311" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="D311" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="E311" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="F311">
         <v>93917</v>
@@ -11495,19 +11301,19 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="B312" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="C312" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="D312" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="E312" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="F312">
         <v>42774</v>
@@ -11518,16 +11324,16 @@
         <v>78</v>
       </c>
       <c r="B313" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="C313" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="D313" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="E313" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="F313">
         <v>167518</v>
@@ -11536,19 +11342,19 @@
     <row r="314" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B315" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="C315" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="D315" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="E315" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="F315">
         <v>1239016</v>
@@ -11556,19 +11362,19 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B316" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="C316" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="D316" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="E316" t="s">
-        <v>1071</v>
+        <v>1060</v>
       </c>
       <c r="F316">
         <v>1239865</v>
@@ -11579,16 +11385,16 @@
         <v>71</v>
       </c>
       <c r="B317" t="s">
-        <v>1072</v>
+        <v>1061</v>
       </c>
       <c r="C317" t="s">
-        <v>1073</v>
+        <v>1062</v>
       </c>
       <c r="D317" t="s">
-        <v>1074</v>
+        <v>1063</v>
       </c>
       <c r="E317" t="s">
-        <v>1075</v>
+        <v>1064</v>
       </c>
       <c r="F317">
         <v>32745</v>
@@ -11599,16 +11405,16 @@
         <v>71</v>
       </c>
       <c r="B318" t="s">
-        <v>1076</v>
+        <v>1065</v>
       </c>
       <c r="C318" t="s">
-        <v>1077</v>
+        <v>1066</v>
       </c>
       <c r="D318" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="E318" t="s">
-        <v>1079</v>
+        <v>1068</v>
       </c>
       <c r="F318">
         <v>224636</v>
@@ -11616,19 +11422,19 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B319" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="C319" t="s">
-        <v>1080</v>
+        <v>1069</v>
       </c>
       <c r="D319" t="s">
-        <v>1081</v>
+        <v>1070</v>
       </c>
       <c r="E319" t="s">
-        <v>1082</v>
+        <v>1071</v>
       </c>
       <c r="F319">
         <v>108552</v>
@@ -11636,19 +11442,19 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B320" t="s">
-        <v>1083</v>
+        <v>1072</v>
       </c>
       <c r="C320" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="D320" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="E320" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="F320">
         <v>1268511</v>
@@ -11659,16 +11465,16 @@
         <v>78</v>
       </c>
       <c r="B321" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="C321" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="D321" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="E321" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="F321">
         <v>33119</v>
@@ -11676,19 +11482,19 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B322" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="C322" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="D322" t="s">
-        <v>1092</v>
+        <v>1081</v>
       </c>
       <c r="E322" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="F322">
         <v>1239712</v>
@@ -11699,16 +11505,16 @@
         <v>78</v>
       </c>
       <c r="B323" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="C323" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="D323" t="s">
-        <v>1096</v>
+        <v>1085</v>
       </c>
       <c r="E323" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="F323">
         <v>1238240</v>
@@ -11719,16 +11525,16 @@
         <v>122</v>
       </c>
       <c r="B324" t="s">
-        <v>1098</v>
+        <v>1087</v>
       </c>
       <c r="C324" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="D324" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="E324" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
       <c r="F324">
         <v>1267016</v>
@@ -11736,19 +11542,19 @@
     </row>
     <row r="325" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A325" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>1104</v>
+        <v>1093</v>
       </c>
       <c r="E325" s="3" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="F325" s="3">
         <v>398575</v>
@@ -11756,19 +11562,19 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B326" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="C326" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D326" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="E326" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="F326">
         <v>399713</v>
@@ -11776,19 +11582,19 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B327" t="s">
-        <v>1110</v>
+        <v>1099</v>
       </c>
       <c r="C327" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D327" t="s">
-        <v>1112</v>
+        <v>1101</v>
       </c>
       <c r="E327" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="F327">
         <v>1240704</v>
@@ -11796,19 +11602,19 @@
     </row>
     <row r="328" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A328" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>1115</v>
+        <v>1104</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="E328" s="3" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="F328" s="3">
         <v>1269143</v>
@@ -11816,19 +11622,19 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B329" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="C329" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="D329" t="s">
-        <v>1120</v>
+        <v>1109</v>
       </c>
       <c r="E329" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="F329">
         <v>108431</v>
@@ -11836,19 +11642,19 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B330" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="C330" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="D330" t="s">
-        <v>1124</v>
+        <v>1113</v>
       </c>
       <c r="E330" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="F330">
         <v>108405</v>
@@ -11859,16 +11665,16 @@
         <v>249</v>
       </c>
       <c r="B331" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="C331" t="s">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="D331" t="s">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="E331" t="s">
-        <v>1129</v>
+        <v>1118</v>
       </c>
       <c r="F331">
         <v>225008</v>
@@ -11876,19 +11682,19 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="C332" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="D332" t="s">
-        <v>1132</v>
+        <v>1121</v>
       </c>
       <c r="E332" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="F332">
         <v>225955</v>
@@ -11896,19 +11702,19 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B333" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="C333" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="D333" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="E333" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="F333">
         <v>282678</v>
@@ -11916,19 +11722,19 @@
     </row>
     <row r="334" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>1140</v>
+        <v>1129</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="F334" s="5">
         <v>400225</v>
@@ -11936,19 +11742,19 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B335" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="C335" t="s">
-        <v>1143</v>
+        <v>1132</v>
       </c>
       <c r="D335" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="E335" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="F335">
         <v>86607</v>
@@ -11956,19 +11762,19 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B336" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="C336" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="D336" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="E336" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="F336">
         <v>37970</v>
@@ -11976,19 +11782,19 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B337" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="C337" t="s">
-        <v>1151</v>
+        <v>1140</v>
       </c>
       <c r="D337" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="E337" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="F337">
         <v>230641</v>
@@ -11996,19 +11802,19 @@
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B338" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="C338" t="s">
-        <v>1155</v>
+        <v>1144</v>
       </c>
       <c r="D338" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="E338" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="F338">
         <v>1239658</v>
@@ -12016,19 +11822,19 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B339" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="C339" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="D339" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="E339" t="s">
-        <v>1161</v>
+        <v>1150</v>
       </c>
       <c r="F339">
         <v>1240978</v>
@@ -12036,19 +11842,19 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B340" t="s">
-        <v>1162</v>
+        <v>1151</v>
       </c>
       <c r="C340" t="s">
-        <v>1163</v>
+        <v>1152</v>
       </c>
       <c r="D340" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="E340" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="F340">
         <v>1265294</v>
@@ -12059,16 +11865,16 @@
         <v>78</v>
       </c>
       <c r="B341" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="C341" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="D341" t="s">
-        <v>1168</v>
+        <v>1157</v>
       </c>
       <c r="E341" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="F341">
         <v>47504</v>
@@ -12076,19 +11882,19 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B342" t="s">
-        <v>1170</v>
+        <v>1159</v>
       </c>
       <c r="C342" t="s">
-        <v>1171</v>
+        <v>1160</v>
       </c>
       <c r="D342" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="E342" t="s">
-        <v>1173</v>
+        <v>1162</v>
       </c>
       <c r="F342">
         <v>1266225</v>
@@ -12096,19 +11902,19 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B343" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="C343" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="D343" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="E343" t="s">
-        <v>1177</v>
+        <v>1166</v>
       </c>
       <c r="F343">
         <v>225382</v>
@@ -12116,19 +11922,19 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="B344" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="C344" t="s">
-        <v>1179</v>
+        <v>1168</v>
       </c>
       <c r="D344" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="E344" t="s">
-        <v>1181</v>
+        <v>1170</v>
       </c>
       <c r="F344">
         <v>1270100</v>
@@ -12139,16 +11945,16 @@
         <v>78</v>
       </c>
       <c r="B345" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="C345" t="s">
-        <v>1183</v>
+        <v>1172</v>
       </c>
       <c r="D345" t="s">
-        <v>1184</v>
+        <v>1173</v>
       </c>
       <c r="E345" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="F345">
         <v>93833</v>
@@ -12159,16 +11965,16 @@
         <v>81</v>
       </c>
       <c r="B346" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="C346" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="D346" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="E346" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="F346">
         <v>65286</v>
@@ -12176,19 +11982,19 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B347" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="C347" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="D347" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="E347" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="F347">
         <v>190932</v>
@@ -12199,16 +12005,16 @@
         <v>81</v>
       </c>
       <c r="B348" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="C348" t="s">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="D348" t="s">
-        <v>1196</v>
+        <v>1185</v>
       </c>
       <c r="E348" t="s">
-        <v>1197</v>
+        <v>1186</v>
       </c>
       <c r="F348">
         <v>109874</v>
@@ -12219,13 +12025,13 @@
         <v>287</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>1198</v>
+        <v>1187</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>1199</v>
+        <v>1188</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1614</v>
+        <v>1587</v>
       </c>
       <c r="E349" s="4">
         <v>3404920</v>
@@ -12236,19 +12042,19 @@
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B350" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="C350" t="s">
-        <v>1201</v>
+        <v>1190</v>
       </c>
       <c r="D350" t="s">
-        <v>1202</v>
+        <v>1191</v>
       </c>
       <c r="E350" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="F350">
         <v>147180</v>
@@ -12256,19 +12062,19 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B351" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="C351" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="D351" t="s">
-        <v>1206</v>
+        <v>1195</v>
       </c>
       <c r="E351" t="s">
-        <v>1207</v>
+        <v>1196</v>
       </c>
       <c r="F351">
         <v>1239660</v>
@@ -12279,16 +12085,16 @@
         <v>168</v>
       </c>
       <c r="B352" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="C352" t="s">
-        <v>1209</v>
+        <v>1198</v>
       </c>
       <c r="D352" t="s">
-        <v>1210</v>
+        <v>1199</v>
       </c>
       <c r="E352" t="s">
-        <v>1211</v>
+        <v>1200</v>
       </c>
       <c r="F352">
         <v>1267922</v>
@@ -12299,53 +12105,33 @@
         <v>136</v>
       </c>
       <c r="B353" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="C353" t="s">
-        <v>1213</v>
+        <v>1202</v>
       </c>
       <c r="D353" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="E353" t="s">
-        <v>1215</v>
+        <v>1204</v>
       </c>
       <c r="F353">
         <v>1270219</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>78</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C354" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D354" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E354" t="s">
-        <v>1219</v>
-      </c>
-      <c r="F354">
-        <v>1238257</v>
-      </c>
-    </row>
     <row r="355" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A355" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>1220</v>
+        <v>1207</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="E355" s="3">
         <v>3003820</v>
@@ -12359,16 +12145,16 @@
         <v>287</v>
       </c>
       <c r="B356" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="C356" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="D356" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="E356" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="F356">
         <v>82067</v>
@@ -12376,19 +12162,19 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B357" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
       <c r="C357" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="D357" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="E357" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="F357">
         <v>190798</v>
@@ -12399,13 +12185,13 @@
         <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="C358" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1615</v>
+        <v>1588</v>
       </c>
       <c r="E358" s="4">
         <v>642270</v>
@@ -12416,19 +12202,19 @@
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B359" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
       <c r="C359" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="D359" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="E359" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="F359">
         <v>398831</v>
@@ -12436,19 +12222,19 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B360" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="C360" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="D360" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="E360" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="F360">
         <v>1239212</v>
@@ -12456,19 +12242,19 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="B361" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="C361" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="D361" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="E361" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="F361">
         <v>1265770</v>
@@ -12476,19 +12262,19 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="B362" t="s">
-        <v>1246</v>
+        <v>1233</v>
       </c>
       <c r="C362" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="D362" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="E362" t="s">
-        <v>1249</v>
+        <v>1236</v>
       </c>
       <c r="F362">
         <v>1265760</v>
@@ -12499,16 +12285,16 @@
         <v>5</v>
       </c>
       <c r="B363" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="C363" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="D363" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="E363" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="F363">
         <v>1270391</v>
@@ -12516,19 +12302,19 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B364" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="C364" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="D364" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="E364" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="F364">
         <v>36816</v>
@@ -12536,19 +12322,19 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B365" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="C365" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="D365" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="E365" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="F365">
         <v>108478</v>
@@ -12556,19 +12342,19 @@
     </row>
     <row r="366" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="E366" s="5" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="F366" s="5">
         <v>190911</v>
@@ -12576,19 +12362,19 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B367" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="C367" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="D367" t="s">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="E367" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="F367">
         <v>84934</v>
@@ -12596,19 +12382,19 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B368" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
       <c r="C368" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="D368" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
       <c r="E368" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="F368">
         <v>224896</v>
@@ -12616,19 +12402,19 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B369" t="s">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="C369" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="D369" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
       <c r="E369" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="F369">
         <v>230628</v>
@@ -12639,13 +12425,13 @@
         <v>5</v>
       </c>
       <c r="B370" t="s">
-        <v>1278</v>
+        <v>1265</v>
       </c>
       <c r="C370" t="s">
-        <v>1279</v>
+        <v>1266</v>
       </c>
       <c r="D370" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="E370" s="4">
         <v>621570</v>
@@ -12659,56 +12445,36 @@
         <v>71</v>
       </c>
       <c r="B371" t="s">
-        <v>1281</v>
+        <v>1268</v>
       </c>
       <c r="C371" t="s">
-        <v>1282</v>
+        <v>1269</v>
       </c>
       <c r="D371" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="E371" t="s">
-        <v>1284</v>
+        <v>1271</v>
       </c>
       <c r="F371">
         <v>1238112</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A372" t="s">
-        <v>468</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C372" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D372" t="s">
-        <v>1287</v>
-      </c>
-      <c r="E372" t="s">
-        <v>1288</v>
-      </c>
-      <c r="F372">
-        <v>146931</v>
-      </c>
-    </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B373" t="s">
-        <v>1289</v>
+        <v>1274</v>
       </c>
       <c r="C373" t="s">
-        <v>1290</v>
+        <v>1275</v>
       </c>
       <c r="D373" t="s">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="E373" t="s">
-        <v>1292</v>
+        <v>1277</v>
       </c>
       <c r="F373">
         <v>147024</v>
@@ -12716,19 +12482,19 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B374" t="s">
-        <v>1293</v>
+        <v>1278</v>
       </c>
       <c r="C374" t="s">
-        <v>1294</v>
+        <v>1279</v>
       </c>
       <c r="D374" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="E374" t="s">
-        <v>1295</v>
+        <v>1280</v>
       </c>
       <c r="F374">
         <v>147615</v>
@@ -12736,19 +12502,19 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B375" t="s">
-        <v>1296</v>
+        <v>1281</v>
       </c>
       <c r="C375" t="s">
-        <v>1297</v>
+        <v>1282</v>
       </c>
       <c r="D375" t="s">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="E375" t="s">
-        <v>1299</v>
+        <v>1284</v>
       </c>
       <c r="F375">
         <v>37446</v>
@@ -12756,19 +12522,19 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B376" t="s">
-        <v>1300</v>
+        <v>1285</v>
       </c>
       <c r="C376" t="s">
-        <v>1301</v>
+        <v>1286</v>
       </c>
       <c r="D376" t="s">
-        <v>1302</v>
+        <v>1287</v>
       </c>
       <c r="E376" t="s">
-        <v>1303</v>
+        <v>1288</v>
       </c>
       <c r="F376">
         <v>84929</v>
@@ -12776,16 +12542,16 @@
     </row>
     <row r="377" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>1616</v>
+        <v>1589</v>
       </c>
       <c r="C377" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="D377" t="s">
-        <v>1304</v>
+        <v>1289</v>
       </c>
       <c r="E377" s="4">
         <v>4648390</v>
@@ -12796,19 +12562,19 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B378" t="s">
-        <v>1305</v>
+        <v>1290</v>
       </c>
       <c r="C378" t="s">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="D378" t="s">
-        <v>1307</v>
+        <v>1292</v>
       </c>
       <c r="E378" t="s">
-        <v>1308</v>
+        <v>1293</v>
       </c>
       <c r="F378">
         <v>1268802</v>
@@ -12819,16 +12585,16 @@
         <v>122</v>
       </c>
       <c r="B379" t="s">
-        <v>1309</v>
+        <v>1294</v>
       </c>
       <c r="C379" t="s">
-        <v>1310</v>
+        <v>1295</v>
       </c>
       <c r="D379" t="s">
-        <v>1311</v>
+        <v>1296</v>
       </c>
       <c r="E379" t="s">
-        <v>1312</v>
+        <v>1297</v>
       </c>
       <c r="F379">
         <v>149694</v>
@@ -12839,16 +12605,16 @@
         <v>122</v>
       </c>
       <c r="B380" t="s">
-        <v>1313</v>
+        <v>1298</v>
       </c>
       <c r="C380" t="s">
-        <v>1314</v>
+        <v>1299</v>
       </c>
       <c r="D380" t="s">
-        <v>1315</v>
+        <v>1300</v>
       </c>
       <c r="E380" t="s">
-        <v>1316</v>
+        <v>1301</v>
       </c>
       <c r="F380">
         <v>99071</v>
@@ -12856,19 +12622,19 @@
     </row>
     <row r="381" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A381" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1317</v>
+        <v>1302</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="D381" s="7" t="s">
-        <v>1319</v>
+        <v>1304</v>
       </c>
       <c r="E381" s="7" t="s">
-        <v>1320</v>
+        <v>1305</v>
       </c>
       <c r="F381" s="7">
         <v>296172</v>
@@ -12879,16 +12645,16 @@
         <v>81</v>
       </c>
       <c r="B382" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="C382" t="s">
-        <v>1321</v>
+        <v>1306</v>
       </c>
       <c r="D382" t="s">
-        <v>1322</v>
+        <v>1307</v>
       </c>
       <c r="E382" t="s">
-        <v>1323</v>
+        <v>1308</v>
       </c>
       <c r="F382">
         <v>148221</v>
@@ -12896,19 +12662,19 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B383" t="s">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="C383" t="s">
-        <v>1325</v>
+        <v>1310</v>
       </c>
       <c r="D383" t="s">
-        <v>1326</v>
+        <v>1311</v>
       </c>
       <c r="E383" t="s">
-        <v>1327</v>
+        <v>1312</v>
       </c>
       <c r="F383">
         <v>1268141</v>
@@ -12919,16 +12685,16 @@
         <v>78</v>
       </c>
       <c r="B384" t="s">
-        <v>1328</v>
+        <v>1313</v>
       </c>
       <c r="C384" t="s">
-        <v>1329</v>
+        <v>1314</v>
       </c>
       <c r="D384" t="s">
-        <v>1330</v>
+        <v>1315</v>
       </c>
       <c r="E384" t="s">
-        <v>1331</v>
+        <v>1316</v>
       </c>
       <c r="F384">
         <v>93858</v>
@@ -12939,16 +12705,16 @@
         <v>136</v>
       </c>
       <c r="B385" t="s">
-        <v>1332</v>
+        <v>1317</v>
       </c>
       <c r="C385" t="s">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="D385" t="s">
-        <v>1334</v>
+        <v>1319</v>
       </c>
       <c r="E385" t="s">
-        <v>1335</v>
+        <v>1320</v>
       </c>
       <c r="F385">
         <v>1238585</v>
@@ -12956,19 +12722,19 @@
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B386" t="s">
-        <v>1336</v>
+        <v>1321</v>
       </c>
       <c r="C386" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
       <c r="D386" t="s">
-        <v>1338</v>
+        <v>1323</v>
       </c>
       <c r="E386" t="s">
-        <v>1339</v>
+        <v>1324</v>
       </c>
       <c r="F386">
         <v>108515</v>
@@ -12976,19 +12742,19 @@
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B387" t="s">
-        <v>1340</v>
+        <v>1325</v>
       </c>
       <c r="C387" t="s">
-        <v>1341</v>
+        <v>1326</v>
       </c>
       <c r="D387" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E387" t="s">
-        <v>1342</v>
+        <v>1327</v>
       </c>
       <c r="F387">
         <v>98740</v>
@@ -12999,16 +12765,16 @@
         <v>168</v>
       </c>
       <c r="B388" t="s">
-        <v>1343</v>
+        <v>1328</v>
       </c>
       <c r="C388" t="s">
-        <v>1344</v>
+        <v>1329</v>
       </c>
       <c r="D388" t="s">
-        <v>1345</v>
+        <v>1330</v>
       </c>
       <c r="E388" t="s">
-        <v>1346</v>
+        <v>1331</v>
       </c>
       <c r="F388">
         <v>282431</v>
@@ -13016,16 +12782,16 @@
     </row>
     <row r="389" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A389" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>1347</v>
+        <v>1332</v>
       </c>
       <c r="C389" s="7" t="s">
-        <v>1348</v>
+        <v>1333</v>
       </c>
       <c r="D389" s="7" t="s">
-        <v>1617</v>
+        <v>1590</v>
       </c>
       <c r="E389" s="7">
         <v>3016200</v>
@@ -13036,19 +12802,19 @@
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B390" t="s">
-        <v>1349</v>
+        <v>1334</v>
       </c>
       <c r="C390" t="s">
-        <v>1350</v>
+        <v>1335</v>
       </c>
       <c r="D390" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="E390" t="s">
-        <v>1352</v>
+        <v>1337</v>
       </c>
       <c r="F390">
         <v>190799</v>
@@ -13056,19 +12822,19 @@
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B391" t="s">
-        <v>1353</v>
+        <v>1338</v>
       </c>
       <c r="C391" t="s">
-        <v>1354</v>
+        <v>1339</v>
       </c>
       <c r="D391" t="s">
-        <v>1355</v>
+        <v>1340</v>
       </c>
       <c r="E391" t="s">
-        <v>1356</v>
+        <v>1341</v>
       </c>
       <c r="F391">
         <v>87115</v>
@@ -13079,16 +12845,16 @@
         <v>81</v>
       </c>
       <c r="B392" t="s">
-        <v>1357</v>
+        <v>1342</v>
       </c>
       <c r="C392" t="s">
-        <v>1358</v>
+        <v>1343</v>
       </c>
       <c r="D392" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="E392" t="s">
-        <v>1360</v>
+        <v>1345</v>
       </c>
       <c r="F392">
         <v>109893</v>
@@ -13099,16 +12865,16 @@
         <v>122</v>
       </c>
       <c r="B393" t="s">
-        <v>1361</v>
+        <v>1346</v>
       </c>
       <c r="C393" t="s">
-        <v>1362</v>
+        <v>1347</v>
       </c>
       <c r="D393" t="s">
-        <v>1363</v>
+        <v>1348</v>
       </c>
       <c r="E393" t="s">
-        <v>1364</v>
+        <v>1349</v>
       </c>
       <c r="F393">
         <v>48573</v>
@@ -13119,16 +12885,16 @@
         <v>249</v>
       </c>
       <c r="B394" t="s">
-        <v>1365</v>
+        <v>1350</v>
       </c>
       <c r="C394" t="s">
-        <v>1366</v>
+        <v>1351</v>
       </c>
       <c r="D394" t="s">
-        <v>1367</v>
+        <v>1352</v>
       </c>
       <c r="E394" t="s">
-        <v>1368</v>
+        <v>1353</v>
       </c>
       <c r="F394">
         <v>109707</v>
@@ -13139,16 +12905,16 @@
         <v>249</v>
       </c>
       <c r="B395" t="s">
-        <v>1369</v>
+        <v>1354</v>
       </c>
       <c r="C395" t="s">
-        <v>1370</v>
+        <v>1355</v>
       </c>
       <c r="D395" t="s">
-        <v>1371</v>
+        <v>1356</v>
       </c>
       <c r="E395" t="s">
-        <v>1372</v>
+        <v>1357</v>
       </c>
       <c r="F395">
         <v>190311</v>
@@ -13156,19 +12922,19 @@
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B396" t="s">
-        <v>1373</v>
+        <v>1358</v>
       </c>
       <c r="C396" t="s">
-        <v>1374</v>
+        <v>1359</v>
       </c>
       <c r="D396" t="s">
-        <v>1375</v>
+        <v>1360</v>
       </c>
       <c r="E396" t="s">
-        <v>1376</v>
+        <v>1361</v>
       </c>
       <c r="F396">
         <v>282676</v>
@@ -13179,16 +12945,16 @@
         <v>122</v>
       </c>
       <c r="B397" t="s">
-        <v>1377</v>
+        <v>1362</v>
       </c>
       <c r="C397" t="s">
-        <v>1378</v>
+        <v>1363</v>
       </c>
       <c r="D397" t="s">
-        <v>1379</v>
+        <v>1364</v>
       </c>
       <c r="E397" t="s">
-        <v>1380</v>
+        <v>1365</v>
       </c>
       <c r="F397">
         <v>224419</v>
@@ -13196,19 +12962,19 @@
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B398" t="s">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="C398" t="s">
-        <v>1382</v>
+        <v>1367</v>
       </c>
       <c r="D398" t="s">
-        <v>1383</v>
+        <v>1368</v>
       </c>
       <c r="E398" t="s">
-        <v>1384</v>
+        <v>1369</v>
       </c>
       <c r="F398">
         <v>1240817</v>
@@ -13219,16 +12985,16 @@
         <v>60</v>
       </c>
       <c r="B399" t="s">
-        <v>1385</v>
+        <v>1370</v>
       </c>
       <c r="C399" t="s">
-        <v>1386</v>
+        <v>1371</v>
       </c>
       <c r="D399" t="s">
-        <v>1387</v>
+        <v>1372</v>
       </c>
       <c r="E399" t="s">
-        <v>1388</v>
+        <v>1373</v>
       </c>
       <c r="F399">
         <v>1143199</v>
@@ -13239,16 +13005,16 @@
         <v>78</v>
       </c>
       <c r="B400" t="s">
-        <v>1389</v>
+        <v>1374</v>
       </c>
       <c r="C400" t="s">
-        <v>1390</v>
+        <v>1375</v>
       </c>
       <c r="D400" t="s">
-        <v>1391</v>
+        <v>1376</v>
       </c>
       <c r="E400" t="s">
-        <v>1392</v>
+        <v>1377</v>
       </c>
       <c r="F400">
         <v>1241313</v>
@@ -13256,16 +13022,16 @@
     </row>
     <row r="401" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A401" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1393</v>
+        <v>1378</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>1394</v>
+        <v>1379</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1618</v>
+        <v>1591</v>
       </c>
       <c r="E401" s="4">
         <v>3016810</v>
@@ -13276,19 +13042,19 @@
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B402" t="s">
-        <v>1395</v>
+        <v>1380</v>
       </c>
       <c r="C402" t="s">
-        <v>1396</v>
+        <v>1381</v>
       </c>
       <c r="D402" t="s">
-        <v>1397</v>
+        <v>1382</v>
       </c>
       <c r="E402" t="s">
-        <v>1398</v>
+        <v>1383</v>
       </c>
       <c r="F402">
         <v>146901</v>
@@ -13299,13 +13065,13 @@
         <v>5</v>
       </c>
       <c r="B404" t="s">
-        <v>1399</v>
+        <v>1384</v>
       </c>
       <c r="C404" t="s">
-        <v>1400</v>
+        <v>1385</v>
       </c>
       <c r="D404" t="s">
-        <v>1401</v>
+        <v>1386</v>
       </c>
       <c r="E404" s="4">
         <v>601415</v>
@@ -13319,16 +13085,16 @@
         <v>287</v>
       </c>
       <c r="B405" t="s">
-        <v>1402</v>
+        <v>1387</v>
       </c>
       <c r="C405" t="s">
-        <v>1403</v>
+        <v>1388</v>
       </c>
       <c r="D405" t="s">
-        <v>1404</v>
+        <v>1389</v>
       </c>
       <c r="E405" t="s">
-        <v>1405</v>
+        <v>1390</v>
       </c>
       <c r="F405">
         <v>1240085</v>
@@ -13339,16 +13105,16 @@
         <v>78</v>
       </c>
       <c r="B406" t="s">
-        <v>1406</v>
+        <v>1391</v>
       </c>
       <c r="C406" t="s">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="D406" t="s">
-        <v>1408</v>
+        <v>1393</v>
       </c>
       <c r="E406" t="s">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="F406">
         <v>50112</v>
@@ -13356,16 +13122,16 @@
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B407" t="s">
-        <v>1410</v>
+        <v>1395</v>
       </c>
       <c r="C407" t="s">
-        <v>1411</v>
+        <v>1396</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>1412</v>
+        <v>1397</v>
       </c>
       <c r="E407" s="4">
         <v>3000098</v>
@@ -13376,19 +13142,19 @@
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B408" t="s">
-        <v>1413</v>
+        <v>1398</v>
       </c>
       <c r="C408" t="s">
-        <v>1414</v>
+        <v>1399</v>
       </c>
       <c r="D408" t="s">
-        <v>1415</v>
+        <v>1400</v>
       </c>
       <c r="E408" t="s">
-        <v>1416</v>
+        <v>1401</v>
       </c>
       <c r="F408">
         <v>82567</v>
@@ -13399,16 +13165,16 @@
         <v>71</v>
       </c>
       <c r="B409" t="s">
-        <v>1417</v>
+        <v>1402</v>
       </c>
       <c r="C409" t="s">
-        <v>1418</v>
+        <v>1403</v>
       </c>
       <c r="D409" t="s">
-        <v>1419</v>
+        <v>1404</v>
       </c>
       <c r="E409" t="s">
-        <v>1420</v>
+        <v>1405</v>
       </c>
       <c r="F409">
         <v>32705</v>
@@ -13419,16 +13185,16 @@
         <v>71</v>
       </c>
       <c r="B410" t="s">
-        <v>1421</v>
+        <v>1406</v>
       </c>
       <c r="C410" t="s">
-        <v>1422</v>
+        <v>1407</v>
       </c>
       <c r="D410" t="s">
-        <v>1423</v>
+        <v>1408</v>
       </c>
       <c r="E410" t="s">
-        <v>1424</v>
+        <v>1409</v>
       </c>
       <c r="F410">
         <v>224651</v>
@@ -13439,16 +13205,16 @@
         <v>122</v>
       </c>
       <c r="B411" t="s">
-        <v>1425</v>
+        <v>1410</v>
       </c>
       <c r="C411" t="s">
-        <v>1426</v>
+        <v>1411</v>
       </c>
       <c r="D411" t="s">
-        <v>1427</v>
+        <v>1412</v>
       </c>
       <c r="E411" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="F411">
         <v>34204</v>
@@ -13459,16 +13225,16 @@
         <v>249</v>
       </c>
       <c r="B412" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="C412" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="D412" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="E412" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="F412">
         <v>108922</v>
@@ -13479,16 +13245,16 @@
         <v>249</v>
       </c>
       <c r="B413" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="C413" t="s">
-        <v>1434</v>
+        <v>1419</v>
       </c>
       <c r="D413" t="s">
-        <v>1435</v>
+        <v>1420</v>
       </c>
       <c r="E413" t="s">
-        <v>1436</v>
+        <v>1421</v>
       </c>
       <c r="F413">
         <v>109347</v>
@@ -13496,19 +13262,19 @@
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B414" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="C414" t="s">
-        <v>1438</v>
+        <v>1423</v>
       </c>
       <c r="D414" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="E414" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="F414">
         <v>149550</v>
@@ -13519,16 +13285,16 @@
         <v>78</v>
       </c>
       <c r="B415" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="C415" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="D415" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="E415" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="F415">
         <v>1239734</v>
@@ -13536,19 +13302,19 @@
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B416" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="C416" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="D416" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="E416" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="F416">
         <v>35419</v>
@@ -13559,16 +13325,16 @@
         <v>78</v>
       </c>
       <c r="B417" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="C417" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="D417" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="E417" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="F417">
         <v>224123</v>
@@ -13579,16 +13345,16 @@
         <v>78</v>
       </c>
       <c r="B418" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="C418" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="D418" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="E418" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="F418">
         <v>1269080</v>
@@ -13597,19 +13363,19 @@
     <row r="419" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B420" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="C420" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="D420" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="E420" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="F420">
         <v>1268220</v>
@@ -13617,19 +13383,19 @@
     </row>
     <row r="421" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="D421" s="5" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="E421" s="5" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="F421" s="5">
         <v>398572</v>
@@ -13637,16 +13403,16 @@
     </row>
     <row r="422" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="D422" s="5" t="s">
-        <v>1619</v>
+        <v>1592</v>
       </c>
       <c r="E422" s="4">
         <v>3005280</v>
@@ -13660,16 +13426,16 @@
         <v>287</v>
       </c>
       <c r="B423" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="C423" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="D423" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="E423" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="F423">
         <v>35817</v>
@@ -13680,16 +13446,16 @@
         <v>287</v>
       </c>
       <c r="B424" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="C424" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="D424" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="E424" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="F424">
         <v>35876</v>
@@ -13700,16 +13466,16 @@
         <v>5</v>
       </c>
       <c r="B425" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="C425" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="D425" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="E425" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="F425">
         <v>93766</v>
@@ -13720,16 +13486,16 @@
         <v>5</v>
       </c>
       <c r="B426" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="C426" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="D426" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="E426" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="F426">
         <v>1269675</v>
@@ -13737,16 +13503,16 @@
     </row>
     <row r="427" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A427" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>1483</v>
+        <v>1468</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>1620</v>
+        <v>1593</v>
       </c>
       <c r="E427" s="4">
         <v>3017010</v>
@@ -13757,19 +13523,19 @@
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B428" t="s">
-        <v>1484</v>
+        <v>1469</v>
       </c>
       <c r="C428" t="s">
-        <v>1485</v>
+        <v>1470</v>
       </c>
       <c r="D428" t="s">
-        <v>1486</v>
+        <v>1471</v>
       </c>
       <c r="E428" t="s">
-        <v>1487</v>
+        <v>1472</v>
       </c>
       <c r="F428">
         <v>1268106</v>
@@ -13780,13 +13546,13 @@
         <v>78</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1488</v>
+        <v>1473</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>1489</v>
+        <v>1474</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1621</v>
+        <v>1594</v>
       </c>
       <c r="E429" s="4">
         <v>1700162</v>
@@ -13800,16 +13566,16 @@
         <v>78</v>
       </c>
       <c r="B430" t="s">
-        <v>1490</v>
+        <v>1475</v>
       </c>
       <c r="C430" t="s">
-        <v>1491</v>
+        <v>1476</v>
       </c>
       <c r="D430" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="E430" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="F430">
         <v>33089</v>
@@ -13820,56 +13586,36 @@
         <v>249</v>
       </c>
       <c r="B431" t="s">
-        <v>1492</v>
+        <v>1477</v>
       </c>
       <c r="C431" t="s">
-        <v>1493</v>
+        <v>1478</v>
       </c>
       <c r="D431" t="s">
-        <v>1494</v>
+        <v>1479</v>
       </c>
       <c r="E431" t="s">
-        <v>1495</v>
+        <v>1480</v>
       </c>
       <c r="F431">
         <v>190314</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A432" t="s">
-        <v>468</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1496</v>
-      </c>
-      <c r="C432" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D432" t="s">
-        <v>1291</v>
-      </c>
-      <c r="E432" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F432">
-        <v>1268408</v>
-      </c>
-    </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B433" t="s">
-        <v>1498</v>
+        <v>1481</v>
       </c>
       <c r="C433" t="s">
-        <v>1499</v>
+        <v>1482</v>
       </c>
       <c r="D433" t="s">
-        <v>1500</v>
+        <v>1483</v>
       </c>
       <c r="E433" t="s">
-        <v>1501</v>
+        <v>1484</v>
       </c>
       <c r="F433">
         <v>398576</v>
@@ -13877,19 +13623,19 @@
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B434" t="s">
-        <v>1502</v>
+        <v>1485</v>
       </c>
       <c r="C434" t="s">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="D434" t="s">
-        <v>1504</v>
+        <v>1487</v>
       </c>
       <c r="E434" t="s">
-        <v>1505</v>
+        <v>1488</v>
       </c>
       <c r="F434">
         <v>1269148</v>
@@ -13897,16 +13643,16 @@
     </row>
     <row r="435" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A435" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1506</v>
+        <v>1489</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>1507</v>
+        <v>1490</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>1622</v>
+        <v>1595</v>
       </c>
       <c r="E435" s="4">
         <v>3004440</v>
@@ -13920,13 +13666,13 @@
         <v>5</v>
       </c>
       <c r="B436" t="s">
-        <v>1508</v>
+        <v>1491</v>
       </c>
       <c r="C436" t="s">
-        <v>1509</v>
+        <v>1492</v>
       </c>
       <c r="D436" t="s">
-        <v>1510</v>
+        <v>1493</v>
       </c>
       <c r="E436" s="4">
         <v>630520</v>
@@ -13937,56 +13683,36 @@
     </row>
     <row r="437" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A437" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1511</v>
+        <v>1494</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>1512</v>
+        <v>1495</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>1513</v>
+        <v>1496</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>1514</v>
+        <v>1497</v>
       </c>
       <c r="F437" s="3">
         <v>1265956</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A438" t="s">
-        <v>468</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C438" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D438" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E438" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F438">
-        <v>1268590</v>
-      </c>
-    </row>
     <row r="439" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A439" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1517</v>
+        <v>1498</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>1518</v>
+        <v>1499</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>1623</v>
+        <v>1596</v>
       </c>
       <c r="E439" s="4">
         <v>3024200</v>
@@ -13997,19 +13723,19 @@
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B440" t="s">
-        <v>1519</v>
+        <v>1500</v>
       </c>
       <c r="C440" t="s">
-        <v>1519</v>
+        <v>1500</v>
       </c>
       <c r="D440" t="s">
-        <v>1520</v>
+        <v>1501</v>
       </c>
       <c r="E440" t="s">
-        <v>1521</v>
+        <v>1502</v>
       </c>
       <c r="F440">
         <v>41760</v>
@@ -14017,19 +13743,19 @@
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B441" t="s">
-        <v>1522</v>
+        <v>1503</v>
       </c>
       <c r="C441" t="s">
-        <v>1523</v>
+        <v>1504</v>
       </c>
       <c r="D441" t="s">
-        <v>1524</v>
+        <v>1505</v>
       </c>
       <c r="E441" t="s">
-        <v>1525</v>
+        <v>1506</v>
       </c>
       <c r="F441">
         <v>37290</v>
@@ -14037,99 +13763,59 @@
     </row>
     <row r="442" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A442" s="3" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1526</v>
+        <v>1507</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>1527</v>
+        <v>1508</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>1528</v>
+        <v>1509</v>
       </c>
       <c r="E442" s="3" t="s">
-        <v>1529</v>
+        <v>1510</v>
       </c>
       <c r="F442" s="3">
         <v>1267940</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A443" t="s">
-        <v>468</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1530</v>
-      </c>
-      <c r="C443" t="s">
-        <v>1531</v>
-      </c>
-      <c r="D443" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E443" t="s">
-        <v>1141</v>
-      </c>
-      <c r="F443">
-        <v>1268109</v>
-      </c>
-    </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B444" t="s">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="C444" t="s">
-        <v>1533</v>
+        <v>1512</v>
       </c>
       <c r="D444" t="s">
-        <v>1534</v>
+        <v>1513</v>
       </c>
       <c r="E444" t="s">
-        <v>1535</v>
+        <v>1514</v>
       </c>
       <c r="F444">
         <v>1268636</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A445" t="s">
-        <v>468</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1536</v>
-      </c>
-      <c r="C445" t="s">
-        <v>1537</v>
-      </c>
-      <c r="D445" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E445" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F445">
-        <v>1268726</v>
-      </c>
-    </row>
     <row r="447" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A447" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>1538</v>
+        <v>1515</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>1539</v>
+        <v>1516</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>1540</v>
+        <v>1517</v>
       </c>
       <c r="E447" s="7" t="s">
-        <v>1541</v>
+        <v>1518</v>
       </c>
       <c r="F447" s="7">
         <v>326274</v>
@@ -14137,19 +13823,19 @@
     </row>
     <row r="448" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A448" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>1542</v>
+        <v>1519</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>1543</v>
+        <v>1520</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>1544</v>
+        <v>1521</v>
       </c>
       <c r="E448" s="7" t="s">
-        <v>1545</v>
+        <v>1522</v>
       </c>
       <c r="F448" s="7">
         <v>1268512</v>
@@ -14157,19 +13843,19 @@
     </row>
     <row r="449" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A449" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>1546</v>
+        <v>1523</v>
       </c>
       <c r="C449" s="7" t="s">
-        <v>1547</v>
+        <v>1524</v>
       </c>
       <c r="D449" s="7" t="s">
-        <v>1548</v>
+        <v>1525</v>
       </c>
       <c r="E449" s="7" t="s">
-        <v>1549</v>
+        <v>1526</v>
       </c>
       <c r="F449" s="7">
         <v>1268810</v>
@@ -14177,99 +13863,59 @@
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B450" t="s">
-        <v>1550</v>
+        <v>1527</v>
       </c>
       <c r="C450" t="s">
-        <v>1551</v>
+        <v>1528</v>
       </c>
       <c r="D450" t="s">
-        <v>1287</v>
+        <v>1272</v>
       </c>
       <c r="E450" t="s">
-        <v>1288</v>
+        <v>1273</v>
       </c>
       <c r="F450">
         <v>1268096</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A451" t="s">
-        <v>468</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C451" t="s">
-        <v>1553</v>
-      </c>
-      <c r="D451" t="s">
-        <v>1302</v>
-      </c>
-      <c r="E451" t="s">
-        <v>1303</v>
-      </c>
-      <c r="F451">
-        <v>1268540</v>
-      </c>
-    </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B452" t="s">
-        <v>1554</v>
+        <v>1529</v>
       </c>
       <c r="C452" t="s">
-        <v>1555</v>
+        <v>1530</v>
       </c>
       <c r="D452" t="s">
-        <v>1556</v>
+        <v>1531</v>
       </c>
       <c r="E452" t="s">
-        <v>1557</v>
+        <v>1532</v>
       </c>
       <c r="F452">
         <v>1268720</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A453" t="s">
-        <v>468</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1558</v>
-      </c>
-      <c r="C453" t="s">
-        <v>1559</v>
-      </c>
-      <c r="D453" t="s">
-        <v>1439</v>
-      </c>
-      <c r="E453" t="s">
-        <v>1440</v>
-      </c>
-      <c r="F453">
-        <v>1268114</v>
-      </c>
-    </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B454" t="s">
-        <v>1560</v>
+        <v>1533</v>
       </c>
       <c r="C454" t="s">
-        <v>1561</v>
+        <v>1534</v>
       </c>
       <c r="D454" t="s">
-        <v>1562</v>
+        <v>1535</v>
       </c>
       <c r="E454" t="s">
-        <v>1563</v>
+        <v>1536</v>
       </c>
       <c r="F454">
         <v>1268093</v>
@@ -14277,19 +13923,19 @@
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B455" t="s">
-        <v>1564</v>
+        <v>1537</v>
       </c>
       <c r="C455" t="s">
-        <v>1565</v>
+        <v>1538</v>
       </c>
       <c r="D455" t="s">
-        <v>1566</v>
+        <v>1539</v>
       </c>
       <c r="E455" t="s">
-        <v>1567</v>
+        <v>1540</v>
       </c>
       <c r="F455">
         <v>159828</v>
@@ -14297,19 +13943,19 @@
     </row>
     <row r="456" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A456" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>1568</v>
+        <v>1541</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>1569</v>
+        <v>1542</v>
       </c>
       <c r="D456" s="7" t="s">
-        <v>1570</v>
+        <v>1543</v>
       </c>
       <c r="E456" s="7" t="s">
-        <v>1571</v>
+        <v>1544</v>
       </c>
       <c r="F456" s="7">
         <v>35396</v>
@@ -14317,19 +13963,19 @@
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B457" t="s">
-        <v>1572</v>
+        <v>1545</v>
       </c>
       <c r="C457" t="s">
-        <v>1573</v>
+        <v>1546</v>
       </c>
       <c r="D457" t="s">
-        <v>1574</v>
+        <v>1547</v>
       </c>
       <c r="E457" t="s">
-        <v>1575</v>
+        <v>1548</v>
       </c>
       <c r="F457">
         <v>1268629</v>
@@ -14337,19 +13983,19 @@
     </row>
     <row r="458" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A458" s="3" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1576</v>
+        <v>1549</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>1577</v>
+        <v>1550</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>1578</v>
+        <v>1551</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>1579</v>
+        <v>1552</v>
       </c>
       <c r="F458" s="3">
         <v>168780</v>
@@ -14357,19 +14003,19 @@
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B459" t="s">
-        <v>1580</v>
+        <v>1553</v>
       </c>
       <c r="C459" t="s">
-        <v>1581</v>
+        <v>1554</v>
       </c>
       <c r="D459" t="s">
-        <v>1582</v>
+        <v>1555</v>
       </c>
       <c r="E459" t="s">
-        <v>1583</v>
+        <v>1556</v>
       </c>
       <c r="F459">
         <v>1268635</v>
@@ -14377,19 +14023,19 @@
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B460" t="s">
-        <v>1584</v>
+        <v>1557</v>
       </c>
       <c r="C460" t="s">
-        <v>1585</v>
+        <v>1558</v>
       </c>
       <c r="D460" t="s">
-        <v>1586</v>
+        <v>1559</v>
       </c>
       <c r="E460" t="s">
-        <v>1587</v>
+        <v>1560</v>
       </c>
       <c r="F460">
         <v>1268638</v>
@@ -14397,19 +14043,19 @@
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B461" t="s">
-        <v>1588</v>
+        <v>1561</v>
       </c>
       <c r="C461" t="s">
-        <v>1589</v>
+        <v>1562</v>
       </c>
       <c r="D461" t="s">
-        <v>1590</v>
+        <v>1563</v>
       </c>
       <c r="E461" t="s">
-        <v>1591</v>
+        <v>1564</v>
       </c>
       <c r="F461">
         <v>1268091</v>
@@ -14417,19 +14063,19 @@
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B462" t="s">
-        <v>1592</v>
+        <v>1565</v>
       </c>
       <c r="C462" t="s">
-        <v>1593</v>
+        <v>1566</v>
       </c>
       <c r="D462" t="s">
-        <v>1594</v>
+        <v>1567</v>
       </c>
       <c r="E462" t="s">
-        <v>1595</v>
+        <v>1568</v>
       </c>
       <c r="F462">
         <v>1268589</v>
@@ -14437,16 +14083,16 @@
     </row>
     <row r="463" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A463" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>1596</v>
+        <v>1569</v>
       </c>
       <c r="C463" s="7" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D463" s="7" t="s">
         <v>1597</v>
-      </c>
-      <c r="D463" s="7" t="s">
-        <v>1624</v>
       </c>
       <c r="E463" s="8">
         <v>3023040</v>
@@ -14457,13 +14103,13 @@
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B464" t="s">
-        <v>1598</v>
+        <v>1571</v>
       </c>
       <c r="C464" t="s">
-        <v>1598</v>
+        <v>1571</v>
       </c>
       <c r="F464">
         <v>30709</v>
@@ -14471,19 +14117,19 @@
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B465" t="s">
-        <v>1599</v>
+        <v>1572</v>
       </c>
       <c r="C465" t="s">
-        <v>1600</v>
+        <v>1573</v>
       </c>
       <c r="D465" t="s">
-        <v>1601</v>
+        <v>1574</v>
       </c>
       <c r="E465" t="s">
-        <v>1602</v>
+        <v>1575</v>
       </c>
       <c r="F465">
         <v>1268466</v>
@@ -14491,16 +14137,16 @@
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="B466" t="s">
-        <v>1603</v>
+        <v>1576</v>
       </c>
       <c r="C466" t="s">
-        <v>1603</v>
+        <v>1576</v>
       </c>
       <c r="E466" t="s">
-        <v>1604</v>
+        <v>1577</v>
       </c>
       <c r="F466">
         <v>44870</v>
@@ -14508,19 +14154,19 @@
     </row>
     <row r="467" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A467" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>1605</v>
+        <v>1578</v>
       </c>
       <c r="C467" s="7" t="s">
-        <v>1605</v>
+        <v>1578</v>
       </c>
       <c r="D467" s="7" t="s">
-        <v>1606</v>
+        <v>1579</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>1607</v>
+        <v>1580</v>
       </c>
       <c r="F467" s="7">
         <v>1268412</v>
@@ -14528,16 +14174,16 @@
     </row>
     <row r="468" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A468" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>1608</v>
+        <v>1581</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>1609</v>
+        <v>1582</v>
       </c>
       <c r="D468" s="8" t="s">
-        <v>1625</v>
+        <v>1598</v>
       </c>
       <c r="E468" s="8">
         <v>3021720</v>
@@ -14548,16 +14194,16 @@
     </row>
     <row r="469" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A469" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>1610</v>
+        <v>1583</v>
       </c>
       <c r="C469" s="7" t="s">
-        <v>1611</v>
+        <v>1584</v>
       </c>
       <c r="D469" s="7" t="s">
-        <v>1626</v>
+        <v>1599</v>
       </c>
       <c r="E469" s="8">
         <v>3000008</v>
@@ -14568,16 +14214,16 @@
     </row>
     <row r="470" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A470" s="7" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>1612</v>
+        <v>1585</v>
       </c>
       <c r="C470" s="7" t="s">
-        <v>1613</v>
+        <v>1586</v>
       </c>
       <c r="D470" s="7" t="s">
-        <v>1627</v>
+        <v>1600</v>
       </c>
       <c r="E470" s="8">
         <v>3017130</v>
